--- a/b1_match_results.xlsx
+++ b/b1_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="514">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -977,6 +977,9 @@
     <t>Michiel Allaerts</t>
   </si>
   <si>
+    <t>Match awarded to Antwerp</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/059136bc/Club-Brugge-Mechelen-July-26-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -1013,15 +1016,15 @@
     <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/140e320a/Dender-vs-Charleroi-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/08ad393c/Standard-Liege-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c2e6b53b/Cercle-Brugge-vs-Antwerp-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e14f61a5/Club-Brugge-vs-Union-SG-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c2e6b53b/Cercle-Brugge-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/08ad393c/Standard-Liege-vs-Anderlecht-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/51e5a603/Sint-Truiden-vs-Gent-History</t>
   </si>
   <si>
@@ -1454,6 +1457,9 @@
     <t>https://fbref.com/en/matches/bbdbfbdb/Anderlecht-Genk-September-17-2024-Belgian-Pro-League</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/261b83a3/Cercle-Brugge-Gent-September-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/e1ae9de5/Genk-Westerlo-August-30-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -1524,6 +1530,30 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/51c957ef/OH-Leuven-Kortrijk-September-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d23b6e77/Charleroi-Club-Brugge-September-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b30b3cb3/Genk-Mechelen-September-28-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d5c30251/Standard-Liege-Westerlo-September-28-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/faf27f70/Dender-Anderlecht-September-28-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e7f3dc07/Antwerp-Beerschot-Wilrijk-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/faa4a290/Union-SG-Kortrijk-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90695338/Gent-OH-Leuven-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10dfb309/Cercle-Brugge-Sint-Truiden-September-29-2024-Belgian-Pro-League</t>
   </si>
 </sst>
 </file>
@@ -1699,11 +1729,11 @@
       <c r="S2" t="s">
         <v>274</v>
       </c>
-      <c r="T2" t="e">
-        <v>#N/A</v>
+      <c r="T2" t="s">
+        <v>274</v>
       </c>
       <c r="U2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
@@ -1764,11 +1794,11 @@
       <c r="S3" t="s">
         <v>274</v>
       </c>
-      <c r="T3" t="e">
-        <v>#N/A</v>
+      <c r="T3" t="s">
+        <v>274</v>
       </c>
       <c r="U3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
@@ -1829,11 +1859,11 @@
       <c r="S4" t="s">
         <v>274</v>
       </c>
-      <c r="T4" t="e">
-        <v>#N/A</v>
+      <c r="T4" t="s">
+        <v>274</v>
       </c>
       <c r="U4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
@@ -1894,11 +1924,11 @@
       <c r="S5" t="s">
         <v>274</v>
       </c>
-      <c r="T5" t="e">
-        <v>#N/A</v>
+      <c r="T5" t="s">
+        <v>274</v>
       </c>
       <c r="U5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
@@ -1959,11 +1989,11 @@
       <c r="S6" t="s">
         <v>274</v>
       </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
+      <c r="T6" t="s">
+        <v>274</v>
       </c>
       <c r="U6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
@@ -2024,11 +2054,11 @@
       <c r="S7" t="s">
         <v>274</v>
       </c>
-      <c r="T7" t="e">
-        <v>#N/A</v>
+      <c r="T7" t="s">
+        <v>274</v>
       </c>
       <c r="U7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8">
@@ -2089,11 +2119,11 @@
       <c r="S8" t="s">
         <v>274</v>
       </c>
-      <c r="T8" t="e">
-        <v>#N/A</v>
+      <c r="T8" t="s">
+        <v>274</v>
       </c>
       <c r="U8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
@@ -2154,11 +2184,11 @@
       <c r="S9" t="s">
         <v>274</v>
       </c>
-      <c r="T9" t="e">
-        <v>#N/A</v>
+      <c r="T9" t="s">
+        <v>274</v>
       </c>
       <c r="U9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
@@ -2219,11 +2249,11 @@
       <c r="S10" t="s">
         <v>274</v>
       </c>
-      <c r="T10" t="e">
-        <v>#N/A</v>
+      <c r="T10" t="s">
+        <v>274</v>
       </c>
       <c r="U10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11">
@@ -2284,11 +2314,11 @@
       <c r="S11" t="s">
         <v>274</v>
       </c>
-      <c r="T11" t="e">
-        <v>#N/A</v>
+      <c r="T11" t="s">
+        <v>274</v>
       </c>
       <c r="U11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
@@ -2349,11 +2379,11 @@
       <c r="S12" t="s">
         <v>274</v>
       </c>
-      <c r="T12" t="e">
-        <v>#N/A</v>
+      <c r="T12" t="s">
+        <v>274</v>
       </c>
       <c r="U12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
@@ -2414,11 +2444,11 @@
       <c r="S13" t="s">
         <v>274</v>
       </c>
-      <c r="T13" t="e">
-        <v>#N/A</v>
+      <c r="T13" t="s">
+        <v>274</v>
       </c>
       <c r="U13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14">
@@ -2453,7 +2483,7 @@
         <v>271</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
@@ -2462,7 +2492,7 @@
         <v>#N/A</v>
       </c>
       <c r="N14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O14" t="e">
         <v>#N/A</v>
@@ -2474,16 +2504,16 @@
         <v>#N/A</v>
       </c>
       <c r="R14" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S14" t="s">
         <v>274</v>
       </c>
-      <c r="T14" t="e">
-        <v>#N/A</v>
+      <c r="T14" t="s">
+        <v>274</v>
       </c>
       <c r="U14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
@@ -2544,11 +2574,11 @@
       <c r="S15" t="s">
         <v>274</v>
       </c>
-      <c r="T15" t="e">
-        <v>#N/A</v>
+      <c r="T15" t="s">
+        <v>274</v>
       </c>
       <c r="U15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16">
@@ -2583,7 +2613,7 @@
         <v>272</v>
       </c>
       <c r="K16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
@@ -2592,7 +2622,7 @@
         <v>#N/A</v>
       </c>
       <c r="N16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O16" t="e">
         <v>#N/A</v>
@@ -2604,16 +2634,16 @@
         <v>#N/A</v>
       </c>
       <c r="R16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S16" t="s">
         <v>274</v>
       </c>
-      <c r="T16" t="e">
-        <v>#N/A</v>
+      <c r="T16" t="s">
+        <v>274</v>
       </c>
       <c r="U16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17">
@@ -2674,11 +2704,11 @@
       <c r="S17" t="s">
         <v>274</v>
       </c>
-      <c r="T17" t="e">
-        <v>#N/A</v>
+      <c r="T17" t="s">
+        <v>274</v>
       </c>
       <c r="U17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18">
@@ -2739,11 +2769,11 @@
       <c r="S18" t="s">
         <v>274</v>
       </c>
-      <c r="T18" t="e">
-        <v>#N/A</v>
+      <c r="T18" t="s">
+        <v>274</v>
       </c>
       <c r="U18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19">
@@ -2804,11 +2834,11 @@
       <c r="S19" t="s">
         <v>274</v>
       </c>
-      <c r="T19" t="e">
-        <v>#N/A</v>
+      <c r="T19" t="s">
+        <v>274</v>
       </c>
       <c r="U19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20">
@@ -2869,11 +2899,11 @@
       <c r="S20" t="s">
         <v>274</v>
       </c>
-      <c r="T20" t="e">
-        <v>#N/A</v>
+      <c r="T20" t="s">
+        <v>274</v>
       </c>
       <c r="U20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21">
@@ -2934,11 +2964,11 @@
       <c r="S21" t="s">
         <v>274</v>
       </c>
-      <c r="T21" t="e">
-        <v>#N/A</v>
+      <c r="T21" t="s">
+        <v>274</v>
       </c>
       <c r="U21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22">
@@ -2999,11 +3029,11 @@
       <c r="S22" t="s">
         <v>274</v>
       </c>
-      <c r="T22" t="e">
-        <v>#N/A</v>
+      <c r="T22" t="s">
+        <v>274</v>
       </c>
       <c r="U22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
@@ -3064,11 +3094,11 @@
       <c r="S23" t="s">
         <v>274</v>
       </c>
-      <c r="T23" t="e">
-        <v>#N/A</v>
+      <c r="T23" t="s">
+        <v>274</v>
       </c>
       <c r="U23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24">
@@ -3129,11 +3159,11 @@
       <c r="S24" t="s">
         <v>274</v>
       </c>
-      <c r="T24" t="e">
-        <v>#N/A</v>
+      <c r="T24" t="s">
+        <v>274</v>
       </c>
       <c r="U24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25">
@@ -3194,11 +3224,11 @@
       <c r="S25" t="s">
         <v>274</v>
       </c>
-      <c r="T25" t="e">
-        <v>#N/A</v>
+      <c r="T25" t="s">
+        <v>274</v>
       </c>
       <c r="U25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26">
@@ -3259,11 +3289,11 @@
       <c r="S26" t="s">
         <v>274</v>
       </c>
-      <c r="T26" t="e">
-        <v>#N/A</v>
+      <c r="T26" t="s">
+        <v>274</v>
       </c>
       <c r="U26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27">
@@ -3324,11 +3354,11 @@
       <c r="S27" t="s">
         <v>274</v>
       </c>
-      <c r="T27" t="e">
-        <v>#N/A</v>
+      <c r="T27" t="s">
+        <v>274</v>
       </c>
       <c r="U27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28">
@@ -3389,11 +3419,11 @@
       <c r="S28" t="s">
         <v>274</v>
       </c>
-      <c r="T28" t="e">
-        <v>#N/A</v>
+      <c r="T28" t="s">
+        <v>274</v>
       </c>
       <c r="U28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29">
@@ -3454,11 +3484,11 @@
       <c r="S29" t="s">
         <v>274</v>
       </c>
-      <c r="T29" t="e">
-        <v>#N/A</v>
+      <c r="T29" t="s">
+        <v>274</v>
       </c>
       <c r="U29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30">
@@ -3519,11 +3549,11 @@
       <c r="S30" t="s">
         <v>274</v>
       </c>
-      <c r="T30" t="e">
-        <v>#N/A</v>
+      <c r="T30" t="s">
+        <v>274</v>
       </c>
       <c r="U30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31">
@@ -3584,11 +3614,11 @@
       <c r="S31" t="s">
         <v>274</v>
       </c>
-      <c r="T31" t="e">
-        <v>#N/A</v>
+      <c r="T31" t="s">
+        <v>274</v>
       </c>
       <c r="U31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32">
@@ -3649,11 +3679,11 @@
       <c r="S32" t="s">
         <v>274</v>
       </c>
-      <c r="T32" t="e">
-        <v>#N/A</v>
+      <c r="T32" t="s">
+        <v>274</v>
       </c>
       <c r="U32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33">
@@ -3714,11 +3744,11 @@
       <c r="S33" t="s">
         <v>274</v>
       </c>
-      <c r="T33" t="e">
-        <v>#N/A</v>
+      <c r="T33" t="s">
+        <v>274</v>
       </c>
       <c r="U33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
@@ -3779,11 +3809,11 @@
       <c r="S34" t="s">
         <v>274</v>
       </c>
-      <c r="T34" t="e">
-        <v>#N/A</v>
+      <c r="T34" t="s">
+        <v>274</v>
       </c>
       <c r="U34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
@@ -3844,11 +3874,11 @@
       <c r="S35" t="s">
         <v>274</v>
       </c>
-      <c r="T35" t="e">
-        <v>#N/A</v>
+      <c r="T35" t="s">
+        <v>274</v>
       </c>
       <c r="U35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
@@ -3909,11 +3939,11 @@
       <c r="S36" t="s">
         <v>274</v>
       </c>
-      <c r="T36" t="e">
-        <v>#N/A</v>
+      <c r="T36" t="s">
+        <v>274</v>
       </c>
       <c r="U36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
@@ -3974,11 +4004,11 @@
       <c r="S37" t="s">
         <v>274</v>
       </c>
-      <c r="T37" t="e">
-        <v>#N/A</v>
+      <c r="T37" t="s">
+        <v>274</v>
       </c>
       <c r="U37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
@@ -4039,11 +4069,11 @@
       <c r="S38" t="s">
         <v>274</v>
       </c>
-      <c r="T38" t="e">
-        <v>#N/A</v>
+      <c r="T38" t="s">
+        <v>274</v>
       </c>
       <c r="U38" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
@@ -4104,11 +4134,11 @@
       <c r="S39" t="s">
         <v>274</v>
       </c>
-      <c r="T39" t="e">
-        <v>#N/A</v>
+      <c r="T39" t="s">
+        <v>274</v>
       </c>
       <c r="U39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
@@ -4169,11 +4199,11 @@
       <c r="S40" t="s">
         <v>274</v>
       </c>
-      <c r="T40" t="e">
-        <v>#N/A</v>
+      <c r="T40" t="s">
+        <v>274</v>
       </c>
       <c r="U40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
@@ -4234,11 +4264,11 @@
       <c r="S41" t="s">
         <v>274</v>
       </c>
-      <c r="T41" t="e">
-        <v>#N/A</v>
+      <c r="T41" t="s">
+        <v>274</v>
       </c>
       <c r="U41" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
@@ -4299,11 +4329,11 @@
       <c r="S42" t="s">
         <v>274</v>
       </c>
-      <c r="T42" t="e">
-        <v>#N/A</v>
+      <c r="T42" t="s">
+        <v>274</v>
       </c>
       <c r="U42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43">
@@ -4364,11 +4394,11 @@
       <c r="S43" t="s">
         <v>274</v>
       </c>
-      <c r="T43" t="e">
-        <v>#N/A</v>
+      <c r="T43" t="s">
+        <v>274</v>
       </c>
       <c r="U43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
@@ -4429,11 +4459,11 @@
       <c r="S44" t="s">
         <v>274</v>
       </c>
-      <c r="T44" t="e">
-        <v>#N/A</v>
+      <c r="T44" t="s">
+        <v>274</v>
       </c>
       <c r="U44" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45">
@@ -4494,11 +4524,11 @@
       <c r="S45" t="s">
         <v>274</v>
       </c>
-      <c r="T45" t="e">
-        <v>#N/A</v>
+      <c r="T45" t="s">
+        <v>274</v>
       </c>
       <c r="U45" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
@@ -4559,11 +4589,11 @@
       <c r="S46" t="s">
         <v>274</v>
       </c>
-      <c r="T46" t="e">
-        <v>#N/A</v>
+      <c r="T46" t="s">
+        <v>274</v>
       </c>
       <c r="U46" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
@@ -4624,11 +4654,11 @@
       <c r="S47" t="s">
         <v>274</v>
       </c>
-      <c r="T47" t="e">
-        <v>#N/A</v>
+      <c r="T47" t="s">
+        <v>274</v>
       </c>
       <c r="U47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
@@ -4689,11 +4719,11 @@
       <c r="S48" t="s">
         <v>274</v>
       </c>
-      <c r="T48" t="e">
-        <v>#N/A</v>
+      <c r="T48" t="s">
+        <v>274</v>
       </c>
       <c r="U48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49">
@@ -4754,11 +4784,11 @@
       <c r="S49" t="s">
         <v>274</v>
       </c>
-      <c r="T49" t="e">
-        <v>#N/A</v>
+      <c r="T49" t="s">
+        <v>274</v>
       </c>
       <c r="U49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50">
@@ -4819,11 +4849,11 @@
       <c r="S50" t="s">
         <v>274</v>
       </c>
-      <c r="T50" t="e">
-        <v>#N/A</v>
+      <c r="T50" t="s">
+        <v>274</v>
       </c>
       <c r="U50" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
@@ -4884,11 +4914,11 @@
       <c r="S51" t="s">
         <v>274</v>
       </c>
-      <c r="T51" t="e">
-        <v>#N/A</v>
+      <c r="T51" t="s">
+        <v>274</v>
       </c>
       <c r="U51" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52">
@@ -4949,11 +4979,11 @@
       <c r="S52" t="s">
         <v>274</v>
       </c>
-      <c r="T52" t="e">
-        <v>#N/A</v>
+      <c r="T52" t="s">
+        <v>274</v>
       </c>
       <c r="U52" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53">
@@ -5014,11 +5044,11 @@
       <c r="S53" t="s">
         <v>274</v>
       </c>
-      <c r="T53" t="e">
-        <v>#N/A</v>
+      <c r="T53" t="s">
+        <v>274</v>
       </c>
       <c r="U53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54">
@@ -5079,11 +5109,11 @@
       <c r="S54" t="s">
         <v>274</v>
       </c>
-      <c r="T54" t="e">
-        <v>#N/A</v>
+      <c r="T54" t="s">
+        <v>274</v>
       </c>
       <c r="U54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55">
@@ -5144,11 +5174,11 @@
       <c r="S55" t="s">
         <v>274</v>
       </c>
-      <c r="T55" t="e">
-        <v>#N/A</v>
+      <c r="T55" t="s">
+        <v>274</v>
       </c>
       <c r="U55" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56">
@@ -5209,11 +5239,11 @@
       <c r="S56" t="s">
         <v>274</v>
       </c>
-      <c r="T56" t="e">
-        <v>#N/A</v>
+      <c r="T56" t="s">
+        <v>274</v>
       </c>
       <c r="U56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57">
@@ -5274,11 +5304,11 @@
       <c r="S57" t="s">
         <v>274</v>
       </c>
-      <c r="T57" t="e">
-        <v>#N/A</v>
+      <c r="T57" t="s">
+        <v>274</v>
       </c>
       <c r="U57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58">
@@ -5339,11 +5369,11 @@
       <c r="S58" t="s">
         <v>274</v>
       </c>
-      <c r="T58" t="e">
-        <v>#N/A</v>
+      <c r="T58" t="s">
+        <v>274</v>
       </c>
       <c r="U58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59">
@@ -5404,11 +5434,11 @@
       <c r="S59" t="s">
         <v>274</v>
       </c>
-      <c r="T59" t="e">
-        <v>#N/A</v>
+      <c r="T59" t="s">
+        <v>274</v>
       </c>
       <c r="U59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60">
@@ -5469,11 +5499,11 @@
       <c r="S60" t="s">
         <v>274</v>
       </c>
-      <c r="T60" t="e">
-        <v>#N/A</v>
+      <c r="T60" t="s">
+        <v>274</v>
       </c>
       <c r="U60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
@@ -5534,11 +5564,11 @@
       <c r="S61" t="s">
         <v>274</v>
       </c>
-      <c r="T61" t="e">
-        <v>#N/A</v>
+      <c r="T61" t="s">
+        <v>274</v>
       </c>
       <c r="U61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62">
@@ -5599,11 +5629,11 @@
       <c r="S62" t="s">
         <v>274</v>
       </c>
-      <c r="T62" t="e">
-        <v>#N/A</v>
+      <c r="T62" t="s">
+        <v>274</v>
       </c>
       <c r="U62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63">
@@ -5664,11 +5694,11 @@
       <c r="S63" t="s">
         <v>274</v>
       </c>
-      <c r="T63" t="e">
-        <v>#N/A</v>
+      <c r="T63" t="s">
+        <v>274</v>
       </c>
       <c r="U63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64">
@@ -5729,11 +5759,11 @@
       <c r="S64" t="s">
         <v>274</v>
       </c>
-      <c r="T64" t="e">
-        <v>#N/A</v>
+      <c r="T64" t="s">
+        <v>274</v>
       </c>
       <c r="U64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65">
@@ -5794,11 +5824,11 @@
       <c r="S65" t="s">
         <v>274</v>
       </c>
-      <c r="T65" t="e">
-        <v>#N/A</v>
+      <c r="T65" t="s">
+        <v>274</v>
       </c>
       <c r="U65" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66">
@@ -5859,11 +5889,11 @@
       <c r="S66" t="s">
         <v>274</v>
       </c>
-      <c r="T66" t="e">
-        <v>#N/A</v>
+      <c r="T66" t="s">
+        <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
@@ -5924,11 +5954,11 @@
       <c r="S67" t="s">
         <v>274</v>
       </c>
-      <c r="T67" t="e">
-        <v>#N/A</v>
+      <c r="T67" t="s">
+        <v>274</v>
       </c>
       <c r="U67" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68">
@@ -5989,11 +6019,11 @@
       <c r="S68" t="s">
         <v>274</v>
       </c>
-      <c r="T68" t="e">
-        <v>#N/A</v>
+      <c r="T68" t="s">
+        <v>274</v>
       </c>
       <c r="U68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69">
@@ -6054,11 +6084,11 @@
       <c r="S69" t="s">
         <v>274</v>
       </c>
-      <c r="T69" t="e">
-        <v>#N/A</v>
+      <c r="T69" t="s">
+        <v>274</v>
       </c>
       <c r="U69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70">
@@ -6119,11 +6149,11 @@
       <c r="S70" t="s">
         <v>274</v>
       </c>
-      <c r="T70" t="e">
-        <v>#N/A</v>
+      <c r="T70" t="s">
+        <v>274</v>
       </c>
       <c r="U70" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71">
@@ -6184,11 +6214,11 @@
       <c r="S71" t="s">
         <v>274</v>
       </c>
-      <c r="T71" t="e">
-        <v>#N/A</v>
+      <c r="T71" t="s">
+        <v>274</v>
       </c>
       <c r="U71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72">
@@ -6249,11 +6279,11 @@
       <c r="S72" t="s">
         <v>274</v>
       </c>
-      <c r="T72" t="e">
-        <v>#N/A</v>
+      <c r="T72" t="s">
+        <v>274</v>
       </c>
       <c r="U72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73">
@@ -6314,11 +6344,11 @@
       <c r="S73" t="s">
         <v>274</v>
       </c>
-      <c r="T73" t="e">
-        <v>#N/A</v>
+      <c r="T73" t="s">
+        <v>274</v>
       </c>
       <c r="U73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74">
@@ -6379,11 +6409,11 @@
       <c r="S74" t="s">
         <v>274</v>
       </c>
-      <c r="T74" t="e">
-        <v>#N/A</v>
+      <c r="T74" t="s">
+        <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75">
@@ -6444,11 +6474,11 @@
       <c r="S75" t="s">
         <v>274</v>
       </c>
-      <c r="T75" t="e">
-        <v>#N/A</v>
+      <c r="T75" t="s">
+        <v>274</v>
       </c>
       <c r="U75" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76">
@@ -6509,11 +6539,11 @@
       <c r="S76" t="s">
         <v>274</v>
       </c>
-      <c r="T76" t="e">
-        <v>#N/A</v>
+      <c r="T76" t="s">
+        <v>274</v>
       </c>
       <c r="U76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77">
@@ -6574,11 +6604,11 @@
       <c r="S77" t="s">
         <v>274</v>
       </c>
-      <c r="T77" t="e">
-        <v>#N/A</v>
+      <c r="T77" t="s">
+        <v>274</v>
       </c>
       <c r="U77" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78">
@@ -6639,11 +6669,11 @@
       <c r="S78" t="s">
         <v>274</v>
       </c>
-      <c r="T78" t="e">
-        <v>#N/A</v>
+      <c r="T78" t="s">
+        <v>274</v>
       </c>
       <c r="U78" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79">
@@ -6704,11 +6734,11 @@
       <c r="S79" t="s">
         <v>274</v>
       </c>
-      <c r="T79" t="e">
-        <v>#N/A</v>
+      <c r="T79" t="s">
+        <v>274</v>
       </c>
       <c r="U79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80">
@@ -6769,11 +6799,11 @@
       <c r="S80" t="s">
         <v>274</v>
       </c>
-      <c r="T80" t="e">
-        <v>#N/A</v>
+      <c r="T80" t="s">
+        <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81">
@@ -6834,11 +6864,11 @@
       <c r="S81" t="s">
         <v>274</v>
       </c>
-      <c r="T81" t="e">
-        <v>#N/A</v>
+      <c r="T81" t="s">
+        <v>274</v>
       </c>
       <c r="U81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82">
@@ -6899,11 +6929,11 @@
       <c r="S82" t="s">
         <v>274</v>
       </c>
-      <c r="T82" t="e">
-        <v>#N/A</v>
+      <c r="T82" t="s">
+        <v>274</v>
       </c>
       <c r="U82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83">
@@ -6964,11 +6994,11 @@
       <c r="S83" t="s">
         <v>274</v>
       </c>
-      <c r="T83" t="e">
-        <v>#N/A</v>
+      <c r="T83" t="s">
+        <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84">
@@ -7029,11 +7059,11 @@
       <c r="S84" t="s">
         <v>274</v>
       </c>
-      <c r="T84" t="e">
-        <v>#N/A</v>
+      <c r="T84" t="s">
+        <v>274</v>
       </c>
       <c r="U84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85">
@@ -7094,11 +7124,11 @@
       <c r="S85" t="s">
         <v>274</v>
       </c>
-      <c r="T85" t="e">
-        <v>#N/A</v>
+      <c r="T85" t="s">
+        <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86">
@@ -7159,11 +7189,11 @@
       <c r="S86" t="s">
         <v>274</v>
       </c>
-      <c r="T86" t="e">
-        <v>#N/A</v>
+      <c r="T86" t="s">
+        <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87">
@@ -7224,11 +7254,11 @@
       <c r="S87" t="s">
         <v>274</v>
       </c>
-      <c r="T87" t="e">
-        <v>#N/A</v>
+      <c r="T87" t="s">
+        <v>274</v>
       </c>
       <c r="U87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88">
@@ -7289,11 +7319,11 @@
       <c r="S88" t="s">
         <v>274</v>
       </c>
-      <c r="T88" t="e">
-        <v>#N/A</v>
+      <c r="T88" t="s">
+        <v>274</v>
       </c>
       <c r="U88" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89">
@@ -7354,11 +7384,11 @@
       <c r="S89" t="s">
         <v>274</v>
       </c>
-      <c r="T89" t="e">
-        <v>#N/A</v>
+      <c r="T89" t="s">
+        <v>274</v>
       </c>
       <c r="U89" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90">
@@ -7419,11 +7449,11 @@
       <c r="S90" t="s">
         <v>274</v>
       </c>
-      <c r="T90" t="e">
-        <v>#N/A</v>
+      <c r="T90" t="s">
+        <v>274</v>
       </c>
       <c r="U90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91">
@@ -7484,11 +7514,11 @@
       <c r="S91" t="s">
         <v>274</v>
       </c>
-      <c r="T91" t="e">
-        <v>#N/A</v>
+      <c r="T91" t="s">
+        <v>274</v>
       </c>
       <c r="U91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92">
@@ -7549,11 +7579,11 @@
       <c r="S92" t="s">
         <v>274</v>
       </c>
-      <c r="T92" t="e">
-        <v>#N/A</v>
+      <c r="T92" t="s">
+        <v>274</v>
       </c>
       <c r="U92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93">
@@ -7614,11 +7644,11 @@
       <c r="S93" t="s">
         <v>274</v>
       </c>
-      <c r="T93" t="e">
-        <v>#N/A</v>
+      <c r="T93" t="s">
+        <v>274</v>
       </c>
       <c r="U93" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94">
@@ -7679,11 +7709,11 @@
       <c r="S94" t="s">
         <v>274</v>
       </c>
-      <c r="T94" t="e">
-        <v>#N/A</v>
+      <c r="T94" t="s">
+        <v>274</v>
       </c>
       <c r="U94" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95">
@@ -7744,11 +7774,11 @@
       <c r="S95" t="s">
         <v>274</v>
       </c>
-      <c r="T95" t="e">
-        <v>#N/A</v>
+      <c r="T95" t="s">
+        <v>274</v>
       </c>
       <c r="U95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96">
@@ -7809,11 +7839,11 @@
       <c r="S96" t="s">
         <v>274</v>
       </c>
-      <c r="T96" t="e">
-        <v>#N/A</v>
+      <c r="T96" t="s">
+        <v>274</v>
       </c>
       <c r="U96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97">
@@ -7874,11 +7904,11 @@
       <c r="S97" t="s">
         <v>307</v>
       </c>
-      <c r="T97" t="e">
-        <v>#N/A</v>
+      <c r="T97" t="s">
+        <v>274</v>
       </c>
       <c r="U97" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98">
@@ -7939,11 +7969,11 @@
       <c r="S98" t="s">
         <v>274</v>
       </c>
-      <c r="T98" t="e">
-        <v>#N/A</v>
+      <c r="T98" t="s">
+        <v>274</v>
       </c>
       <c r="U98" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="99">
@@ -8004,11 +8034,11 @@
       <c r="S99" t="s">
         <v>274</v>
       </c>
-      <c r="T99" t="e">
-        <v>#N/A</v>
+      <c r="T99" t="s">
+        <v>274</v>
       </c>
       <c r="U99" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100">
@@ -8069,11 +8099,11 @@
       <c r="S100" t="s">
         <v>274</v>
       </c>
-      <c r="T100" t="e">
-        <v>#N/A</v>
+      <c r="T100" t="s">
+        <v>274</v>
       </c>
       <c r="U100" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101">
@@ -8134,11 +8164,11 @@
       <c r="S101" t="s">
         <v>274</v>
       </c>
-      <c r="T101" t="e">
-        <v>#N/A</v>
+      <c r="T101" t="s">
+        <v>274</v>
       </c>
       <c r="U101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102">
@@ -8199,11 +8229,11 @@
       <c r="S102" t="s">
         <v>274</v>
       </c>
-      <c r="T102" t="e">
-        <v>#N/A</v>
+      <c r="T102" t="s">
+        <v>274</v>
       </c>
       <c r="U102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103">
@@ -8264,11 +8294,11 @@
       <c r="S103" t="s">
         <v>274</v>
       </c>
-      <c r="T103" t="e">
-        <v>#N/A</v>
+      <c r="T103" t="s">
+        <v>274</v>
       </c>
       <c r="U103" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104">
@@ -8329,11 +8359,11 @@
       <c r="S104" t="s">
         <v>274</v>
       </c>
-      <c r="T104" t="e">
-        <v>#N/A</v>
+      <c r="T104" t="s">
+        <v>274</v>
       </c>
       <c r="U104" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="105">
@@ -8394,11 +8424,11 @@
       <c r="S105" t="s">
         <v>274</v>
       </c>
-      <c r="T105" t="e">
-        <v>#N/A</v>
+      <c r="T105" t="s">
+        <v>274</v>
       </c>
       <c r="U105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106">
@@ -8459,11 +8489,11 @@
       <c r="S106" t="s">
         <v>274</v>
       </c>
-      <c r="T106" t="e">
-        <v>#N/A</v>
+      <c r="T106" t="s">
+        <v>274</v>
       </c>
       <c r="U106" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107">
@@ -8524,11 +8554,11 @@
       <c r="S107" t="s">
         <v>274</v>
       </c>
-      <c r="T107" t="e">
-        <v>#N/A</v>
+      <c r="T107" t="s">
+        <v>274</v>
       </c>
       <c r="U107" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="108">
@@ -8589,11 +8619,11 @@
       <c r="S108" t="s">
         <v>274</v>
       </c>
-      <c r="T108" t="e">
-        <v>#N/A</v>
+      <c r="T108" t="s">
+        <v>274</v>
       </c>
       <c r="U108" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109">
@@ -8654,11 +8684,11 @@
       <c r="S109" t="s">
         <v>274</v>
       </c>
-      <c r="T109" t="e">
-        <v>#N/A</v>
+      <c r="T109" t="s">
+        <v>274</v>
       </c>
       <c r="U109" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110">
@@ -8719,11 +8749,11 @@
       <c r="S110" t="s">
         <v>274</v>
       </c>
-      <c r="T110" t="e">
-        <v>#N/A</v>
+      <c r="T110" t="s">
+        <v>274</v>
       </c>
       <c r="U110" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111">
@@ -8784,11 +8814,11 @@
       <c r="S111" t="s">
         <v>274</v>
       </c>
-      <c r="T111" t="e">
-        <v>#N/A</v>
+      <c r="T111" t="s">
+        <v>274</v>
       </c>
       <c r="U111" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112">
@@ -8849,11 +8879,11 @@
       <c r="S112" t="s">
         <v>274</v>
       </c>
-      <c r="T112" t="e">
-        <v>#N/A</v>
+      <c r="T112" t="s">
+        <v>274</v>
       </c>
       <c r="U112" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113">
@@ -8914,11 +8944,11 @@
       <c r="S113" t="s">
         <v>274</v>
       </c>
-      <c r="T113" t="e">
-        <v>#N/A</v>
+      <c r="T113" t="s">
+        <v>274</v>
       </c>
       <c r="U113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114">
@@ -8979,11 +9009,11 @@
       <c r="S114" t="s">
         <v>274</v>
       </c>
-      <c r="T114" t="e">
-        <v>#N/A</v>
+      <c r="T114" t="s">
+        <v>274</v>
       </c>
       <c r="U114" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115">
@@ -9044,11 +9074,11 @@
       <c r="S115" t="s">
         <v>274</v>
       </c>
-      <c r="T115" t="e">
-        <v>#N/A</v>
+      <c r="T115" t="s">
+        <v>274</v>
       </c>
       <c r="U115" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116">
@@ -9109,11 +9139,11 @@
       <c r="S116" t="s">
         <v>274</v>
       </c>
-      <c r="T116" t="e">
-        <v>#N/A</v>
+      <c r="T116" t="s">
+        <v>274</v>
       </c>
       <c r="U116" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117">
@@ -9174,11 +9204,11 @@
       <c r="S117" t="s">
         <v>274</v>
       </c>
-      <c r="T117" t="e">
-        <v>#N/A</v>
+      <c r="T117" t="s">
+        <v>274</v>
       </c>
       <c r="U117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118">
@@ -9239,11 +9269,11 @@
       <c r="S118" t="s">
         <v>274</v>
       </c>
-      <c r="T118" t="e">
-        <v>#N/A</v>
+      <c r="T118" t="s">
+        <v>274</v>
       </c>
       <c r="U118" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119">
@@ -9304,11 +9334,11 @@
       <c r="S119" t="s">
         <v>274</v>
       </c>
-      <c r="T119" t="e">
-        <v>#N/A</v>
+      <c r="T119" t="s">
+        <v>274</v>
       </c>
       <c r="U119" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120">
@@ -9369,11 +9399,11 @@
       <c r="S120" t="s">
         <v>274</v>
       </c>
-      <c r="T120" t="e">
-        <v>#N/A</v>
+      <c r="T120" t="s">
+        <v>274</v>
       </c>
       <c r="U120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121">
@@ -9434,11 +9464,11 @@
       <c r="S121" t="s">
         <v>274</v>
       </c>
-      <c r="T121" t="e">
-        <v>#N/A</v>
+      <c r="T121" t="s">
+        <v>274</v>
       </c>
       <c r="U121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122">
@@ -9499,11 +9529,11 @@
       <c r="S122" t="s">
         <v>274</v>
       </c>
-      <c r="T122" t="e">
-        <v>#N/A</v>
+      <c r="T122" t="s">
+        <v>274</v>
       </c>
       <c r="U122" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123">
@@ -9564,11 +9594,11 @@
       <c r="S123" t="s">
         <v>274</v>
       </c>
-      <c r="T123" t="e">
-        <v>#N/A</v>
+      <c r="T123" t="s">
+        <v>274</v>
       </c>
       <c r="U123" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124">
@@ -9629,11 +9659,11 @@
       <c r="S124" t="s">
         <v>274</v>
       </c>
-      <c r="T124" t="e">
-        <v>#N/A</v>
+      <c r="T124" t="s">
+        <v>274</v>
       </c>
       <c r="U124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125">
@@ -9694,11 +9724,11 @@
       <c r="S125" t="s">
         <v>274</v>
       </c>
-      <c r="T125" t="e">
-        <v>#N/A</v>
+      <c r="T125" t="s">
+        <v>274</v>
       </c>
       <c r="U125" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126">
@@ -9759,11 +9789,11 @@
       <c r="S126" t="s">
         <v>274</v>
       </c>
-      <c r="T126" t="e">
-        <v>#N/A</v>
+      <c r="T126" t="s">
+        <v>274</v>
       </c>
       <c r="U126" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127">
@@ -9824,11 +9854,11 @@
       <c r="S127" t="s">
         <v>274</v>
       </c>
-      <c r="T127" t="e">
-        <v>#N/A</v>
+      <c r="T127" t="s">
+        <v>274</v>
       </c>
       <c r="U127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128">
@@ -9889,11 +9919,11 @@
       <c r="S128" t="s">
         <v>274</v>
       </c>
-      <c r="T128" t="e">
-        <v>#N/A</v>
+      <c r="T128" t="s">
+        <v>274</v>
       </c>
       <c r="U128" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129">
@@ -9954,11 +9984,11 @@
       <c r="S129" t="s">
         <v>274</v>
       </c>
-      <c r="T129" t="e">
-        <v>#N/A</v>
+      <c r="T129" t="s">
+        <v>274</v>
       </c>
       <c r="U129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130">
@@ -10019,11 +10049,11 @@
       <c r="S130" t="s">
         <v>274</v>
       </c>
-      <c r="T130" t="e">
-        <v>#N/A</v>
+      <c r="T130" t="s">
+        <v>274</v>
       </c>
       <c r="U130" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131">
@@ -10084,11 +10114,11 @@
       <c r="S131" t="s">
         <v>274</v>
       </c>
-      <c r="T131" t="e">
-        <v>#N/A</v>
+      <c r="T131" t="s">
+        <v>274</v>
       </c>
       <c r="U131" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132">
@@ -10149,11 +10179,11 @@
       <c r="S132" t="s">
         <v>274</v>
       </c>
-      <c r="T132" t="e">
-        <v>#N/A</v>
+      <c r="T132" t="s">
+        <v>274</v>
       </c>
       <c r="U132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133">
@@ -10214,11 +10244,11 @@
       <c r="S133" t="s">
         <v>274</v>
       </c>
-      <c r="T133" t="e">
-        <v>#N/A</v>
+      <c r="T133" t="s">
+        <v>274</v>
       </c>
       <c r="U133" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134">
@@ -10279,11 +10309,11 @@
       <c r="S134" t="s">
         <v>274</v>
       </c>
-      <c r="T134" t="e">
-        <v>#N/A</v>
+      <c r="T134" t="s">
+        <v>274</v>
       </c>
       <c r="U134" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="135">
@@ -10344,11 +10374,11 @@
       <c r="S135" t="s">
         <v>274</v>
       </c>
-      <c r="T135" t="e">
-        <v>#N/A</v>
+      <c r="T135" t="s">
+        <v>274</v>
       </c>
       <c r="U135" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136">
@@ -10409,11 +10439,11 @@
       <c r="S136" t="s">
         <v>274</v>
       </c>
-      <c r="T136" t="e">
-        <v>#N/A</v>
+      <c r="T136" t="s">
+        <v>274</v>
       </c>
       <c r="U136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137">
@@ -10474,11 +10504,11 @@
       <c r="S137" t="s">
         <v>274</v>
       </c>
-      <c r="T137" t="e">
-        <v>#N/A</v>
+      <c r="T137" t="s">
+        <v>274</v>
       </c>
       <c r="U137" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138">
@@ -10539,11 +10569,11 @@
       <c r="S138" t="s">
         <v>274</v>
       </c>
-      <c r="T138" t="e">
-        <v>#N/A</v>
+      <c r="T138" t="s">
+        <v>274</v>
       </c>
       <c r="U138" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139">
@@ -10604,11 +10634,11 @@
       <c r="S139" t="s">
         <v>274</v>
       </c>
-      <c r="T139" t="e">
-        <v>#N/A</v>
+      <c r="T139" t="s">
+        <v>274</v>
       </c>
       <c r="U139" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140">
@@ -10669,11 +10699,11 @@
       <c r="S140" t="s">
         <v>274</v>
       </c>
-      <c r="T140" t="e">
-        <v>#N/A</v>
+      <c r="T140" t="s">
+        <v>274</v>
       </c>
       <c r="U140" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141">
@@ -10734,11 +10764,11 @@
       <c r="S141" t="s">
         <v>274</v>
       </c>
-      <c r="T141" t="e">
-        <v>#N/A</v>
+      <c r="T141" t="s">
+        <v>274</v>
       </c>
       <c r="U141" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142">
@@ -10799,11 +10829,11 @@
       <c r="S142" t="s">
         <v>274</v>
       </c>
-      <c r="T142" t="e">
-        <v>#N/A</v>
+      <c r="T142" t="s">
+        <v>274</v>
       </c>
       <c r="U142" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143">
@@ -10864,11 +10894,11 @@
       <c r="S143" t="s">
         <v>274</v>
       </c>
-      <c r="T143" t="e">
-        <v>#N/A</v>
+      <c r="T143" t="s">
+        <v>274</v>
       </c>
       <c r="U143" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="144">
@@ -10929,11 +10959,11 @@
       <c r="S144" t="s">
         <v>274</v>
       </c>
-      <c r="T144" t="e">
-        <v>#N/A</v>
+      <c r="T144" t="s">
+        <v>274</v>
       </c>
       <c r="U144" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145">
@@ -10994,11 +11024,11 @@
       <c r="S145" t="s">
         <v>274</v>
       </c>
-      <c r="T145" t="e">
-        <v>#N/A</v>
+      <c r="T145" t="s">
+        <v>274</v>
       </c>
       <c r="U145" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146">
@@ -11059,11 +11089,11 @@
       <c r="S146" t="s">
         <v>274</v>
       </c>
-      <c r="T146" t="e">
-        <v>#N/A</v>
+      <c r="T146" t="s">
+        <v>274</v>
       </c>
       <c r="U146" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147">
@@ -11124,11 +11154,11 @@
       <c r="S147" t="s">
         <v>274</v>
       </c>
-      <c r="T147" t="e">
-        <v>#N/A</v>
+      <c r="T147" t="s">
+        <v>274</v>
       </c>
       <c r="U147" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148">
@@ -11189,11 +11219,11 @@
       <c r="S148" t="s">
         <v>274</v>
       </c>
-      <c r="T148" t="e">
-        <v>#N/A</v>
+      <c r="T148" t="s">
+        <v>274</v>
       </c>
       <c r="U148" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149">
@@ -11254,11 +11284,11 @@
       <c r="S149" t="s">
         <v>274</v>
       </c>
-      <c r="T149" t="e">
-        <v>#N/A</v>
+      <c r="T149" t="s">
+        <v>274</v>
       </c>
       <c r="U149" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150">
@@ -11319,11 +11349,11 @@
       <c r="S150" t="s">
         <v>274</v>
       </c>
-      <c r="T150" t="e">
-        <v>#N/A</v>
+      <c r="T150" t="s">
+        <v>274</v>
       </c>
       <c r="U150" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151">
@@ -11384,11 +11414,11 @@
       <c r="S151" t="s">
         <v>274</v>
       </c>
-      <c r="T151" t="e">
-        <v>#N/A</v>
+      <c r="T151" t="s">
+        <v>274</v>
       </c>
       <c r="U151" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152">
@@ -11449,11 +11479,11 @@
       <c r="S152" t="s">
         <v>274</v>
       </c>
-      <c r="T152" t="e">
-        <v>#N/A</v>
+      <c r="T152" t="s">
+        <v>274</v>
       </c>
       <c r="U152" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153">
@@ -11514,11 +11544,11 @@
       <c r="S153" t="s">
         <v>274</v>
       </c>
-      <c r="T153" t="e">
-        <v>#N/A</v>
+      <c r="T153" t="s">
+        <v>274</v>
       </c>
       <c r="U153" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="154">
@@ -11579,11 +11609,11 @@
       <c r="S154" t="s">
         <v>274</v>
       </c>
-      <c r="T154" t="e">
-        <v>#N/A</v>
+      <c r="T154" t="s">
+        <v>274</v>
       </c>
       <c r="U154" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155">
@@ -11644,11 +11674,11 @@
       <c r="S155" t="s">
         <v>274</v>
       </c>
-      <c r="T155" t="e">
-        <v>#N/A</v>
+      <c r="T155" t="s">
+        <v>274</v>
       </c>
       <c r="U155" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156">
@@ -11709,11 +11739,11 @@
       <c r="S156" t="s">
         <v>274</v>
       </c>
-      <c r="T156" t="e">
-        <v>#N/A</v>
+      <c r="T156" t="s">
+        <v>274</v>
       </c>
       <c r="U156" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157">
@@ -11774,11 +11804,11 @@
       <c r="S157" t="s">
         <v>274</v>
       </c>
-      <c r="T157" t="e">
-        <v>#N/A</v>
+      <c r="T157" t="s">
+        <v>274</v>
       </c>
       <c r="U157" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158">
@@ -11839,11 +11869,11 @@
       <c r="S158" t="s">
         <v>274</v>
       </c>
-      <c r="T158" t="e">
-        <v>#N/A</v>
+      <c r="T158" t="s">
+        <v>274</v>
       </c>
       <c r="U158" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159">
@@ -11904,11 +11934,11 @@
       <c r="S159" t="s">
         <v>274</v>
       </c>
-      <c r="T159" t="e">
-        <v>#N/A</v>
+      <c r="T159" t="s">
+        <v>274</v>
       </c>
       <c r="U159" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160">
@@ -11969,11 +11999,11 @@
       <c r="S160" t="s">
         <v>274</v>
       </c>
-      <c r="T160" t="e">
-        <v>#N/A</v>
+      <c r="T160" t="s">
+        <v>274</v>
       </c>
       <c r="U160" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161">
@@ -12034,11 +12064,11 @@
       <c r="S161" t="s">
         <v>274</v>
       </c>
-      <c r="T161" t="e">
-        <v>#N/A</v>
+      <c r="T161" t="s">
+        <v>274</v>
       </c>
       <c r="U161" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162">
@@ -12099,11 +12129,11 @@
       <c r="S162" t="s">
         <v>274</v>
       </c>
-      <c r="T162" t="e">
-        <v>#N/A</v>
+      <c r="T162" t="s">
+        <v>274</v>
       </c>
       <c r="U162" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="163">
@@ -12164,11 +12194,11 @@
       <c r="S163" t="s">
         <v>274</v>
       </c>
-      <c r="T163" t="e">
-        <v>#N/A</v>
+      <c r="T163" t="s">
+        <v>274</v>
       </c>
       <c r="U163" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164">
@@ -12229,11 +12259,11 @@
       <c r="S164" t="s">
         <v>274</v>
       </c>
-      <c r="T164" t="e">
-        <v>#N/A</v>
+      <c r="T164" t="s">
+        <v>274</v>
       </c>
       <c r="U164" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="165">
@@ -12294,11 +12324,11 @@
       <c r="S165" t="s">
         <v>274</v>
       </c>
-      <c r="T165" t="e">
-        <v>#N/A</v>
+      <c r="T165" t="s">
+        <v>274</v>
       </c>
       <c r="U165" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166">
@@ -12359,11 +12389,11 @@
       <c r="S166" t="s">
         <v>274</v>
       </c>
-      <c r="T166" t="e">
-        <v>#N/A</v>
+      <c r="T166" t="s">
+        <v>274</v>
       </c>
       <c r="U166" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167">
@@ -12424,11 +12454,11 @@
       <c r="S167" t="s">
         <v>274</v>
       </c>
-      <c r="T167" t="e">
-        <v>#N/A</v>
+      <c r="T167" t="s">
+        <v>274</v>
       </c>
       <c r="U167" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168">
@@ -12489,11 +12519,11 @@
       <c r="S168" t="s">
         <v>274</v>
       </c>
-      <c r="T168" t="e">
-        <v>#N/A</v>
+      <c r="T168" t="s">
+        <v>274</v>
       </c>
       <c r="U168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169">
@@ -12554,11 +12584,11 @@
       <c r="S169" t="s">
         <v>274</v>
       </c>
-      <c r="T169" t="e">
-        <v>#N/A</v>
+      <c r="T169" t="s">
+        <v>274</v>
       </c>
       <c r="U169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170">
@@ -12619,11 +12649,11 @@
       <c r="S170" t="s">
         <v>274</v>
       </c>
-      <c r="T170" t="e">
-        <v>#N/A</v>
+      <c r="T170" t="s">
+        <v>274</v>
       </c>
       <c r="U170" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171">
@@ -12684,11 +12714,11 @@
       <c r="S171" t="s">
         <v>274</v>
       </c>
-      <c r="T171" t="e">
-        <v>#N/A</v>
+      <c r="T171" t="s">
+        <v>274</v>
       </c>
       <c r="U171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172">
@@ -12749,11 +12779,11 @@
       <c r="S172" t="s">
         <v>274</v>
       </c>
-      <c r="T172" t="e">
-        <v>#N/A</v>
+      <c r="T172" t="s">
+        <v>274</v>
       </c>
       <c r="U172" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173">
@@ -12814,11 +12844,11 @@
       <c r="S173" t="s">
         <v>274</v>
       </c>
-      <c r="T173" t="e">
-        <v>#N/A</v>
+      <c r="T173" t="s">
+        <v>274</v>
       </c>
       <c r="U173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174">
@@ -12879,11 +12909,11 @@
       <c r="S174" t="s">
         <v>274</v>
       </c>
-      <c r="T174" t="e">
-        <v>#N/A</v>
+      <c r="T174" t="s">
+        <v>274</v>
       </c>
       <c r="U174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175">
@@ -12944,11 +12974,11 @@
       <c r="S175" t="s">
         <v>274</v>
       </c>
-      <c r="T175" t="e">
-        <v>#N/A</v>
+      <c r="T175" t="s">
+        <v>274</v>
       </c>
       <c r="U175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176">
@@ -13009,11 +13039,11 @@
       <c r="S176" t="s">
         <v>274</v>
       </c>
-      <c r="T176" t="e">
-        <v>#N/A</v>
+      <c r="T176" t="s">
+        <v>274</v>
       </c>
       <c r="U176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177">
@@ -13074,11 +13104,11 @@
       <c r="S177" t="s">
         <v>274</v>
       </c>
-      <c r="T177" t="e">
-        <v>#N/A</v>
+      <c r="T177" t="s">
+        <v>274</v>
       </c>
       <c r="U177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178">
@@ -13139,11 +13169,11 @@
       <c r="S178" t="s">
         <v>274</v>
       </c>
-      <c r="T178" t="e">
-        <v>#N/A</v>
+      <c r="T178" t="s">
+        <v>274</v>
       </c>
       <c r="U178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179">
@@ -13204,11 +13234,11 @@
       <c r="S179" t="s">
         <v>274</v>
       </c>
-      <c r="T179" t="e">
-        <v>#N/A</v>
+      <c r="T179" t="s">
+        <v>274</v>
       </c>
       <c r="U179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180">
@@ -13269,11 +13299,11 @@
       <c r="S180" t="s">
         <v>274</v>
       </c>
-      <c r="T180" t="e">
-        <v>#N/A</v>
+      <c r="T180" t="s">
+        <v>274</v>
       </c>
       <c r="U180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181">
@@ -13334,11 +13364,11 @@
       <c r="S181" t="s">
         <v>274</v>
       </c>
-      <c r="T181" t="e">
-        <v>#N/A</v>
+      <c r="T181" t="s">
+        <v>274</v>
       </c>
       <c r="U181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182">
@@ -13399,11 +13429,11 @@
       <c r="S182" t="s">
         <v>274</v>
       </c>
-      <c r="T182" t="e">
-        <v>#N/A</v>
+      <c r="T182" t="s">
+        <v>274</v>
       </c>
       <c r="U182" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183">
@@ -13464,11 +13494,11 @@
       <c r="S183" t="s">
         <v>274</v>
       </c>
-      <c r="T183" t="e">
-        <v>#N/A</v>
+      <c r="T183" t="s">
+        <v>274</v>
       </c>
       <c r="U183" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184">
@@ -13529,11 +13559,11 @@
       <c r="S184" t="s">
         <v>274</v>
       </c>
-      <c r="T184" t="e">
-        <v>#N/A</v>
+      <c r="T184" t="s">
+        <v>274</v>
       </c>
       <c r="U184" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185">
@@ -13594,11 +13624,11 @@
       <c r="S185" t="s">
         <v>274</v>
       </c>
-      <c r="T185" t="e">
-        <v>#N/A</v>
+      <c r="T185" t="s">
+        <v>274</v>
       </c>
       <c r="U185" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186">
@@ -13659,11 +13689,11 @@
       <c r="S186" t="s">
         <v>274</v>
       </c>
-      <c r="T186" t="e">
-        <v>#N/A</v>
+      <c r="T186" t="s">
+        <v>274</v>
       </c>
       <c r="U186" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187">
@@ -13724,11 +13754,11 @@
       <c r="S187" t="s">
         <v>274</v>
       </c>
-      <c r="T187" t="e">
-        <v>#N/A</v>
+      <c r="T187" t="s">
+        <v>274</v>
       </c>
       <c r="U187" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188">
@@ -13789,11 +13819,11 @@
       <c r="S188" t="s">
         <v>274</v>
       </c>
-      <c r="T188" t="e">
-        <v>#N/A</v>
+      <c r="T188" t="s">
+        <v>274</v>
       </c>
       <c r="U188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189">
@@ -13854,11 +13884,11 @@
       <c r="S189" t="s">
         <v>274</v>
       </c>
-      <c r="T189" t="e">
-        <v>#N/A</v>
+      <c r="T189" t="s">
+        <v>274</v>
       </c>
       <c r="U189" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190">
@@ -13919,11 +13949,11 @@
       <c r="S190" t="s">
         <v>274</v>
       </c>
-      <c r="T190" t="e">
-        <v>#N/A</v>
+      <c r="T190" t="s">
+        <v>274</v>
       </c>
       <c r="U190" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191">
@@ -13984,11 +14014,11 @@
       <c r="S191" t="s">
         <v>274</v>
       </c>
-      <c r="T191" t="e">
-        <v>#N/A</v>
+      <c r="T191" t="s">
+        <v>274</v>
       </c>
       <c r="U191" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192">
@@ -14049,11 +14079,11 @@
       <c r="S192" t="s">
         <v>274</v>
       </c>
-      <c r="T192" t="e">
-        <v>#N/A</v>
+      <c r="T192" t="s">
+        <v>274</v>
       </c>
       <c r="U192" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193">
@@ -14114,11 +14144,11 @@
       <c r="S193" t="s">
         <v>274</v>
       </c>
-      <c r="T193" t="e">
-        <v>#N/A</v>
+      <c r="T193" t="s">
+        <v>274</v>
       </c>
       <c r="U193" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194">
@@ -14179,11 +14209,11 @@
       <c r="S194" t="s">
         <v>274</v>
       </c>
-      <c r="T194" t="e">
-        <v>#N/A</v>
+      <c r="T194" t="s">
+        <v>274</v>
       </c>
       <c r="U194" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195">
@@ -14244,11 +14274,11 @@
       <c r="S195" t="s">
         <v>274</v>
       </c>
-      <c r="T195" t="e">
-        <v>#N/A</v>
+      <c r="T195" t="s">
+        <v>274</v>
       </c>
       <c r="U195" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196">
@@ -14309,11 +14339,11 @@
       <c r="S196" t="s">
         <v>274</v>
       </c>
-      <c r="T196" t="e">
-        <v>#N/A</v>
+      <c r="T196" t="s">
+        <v>274</v>
       </c>
       <c r="U196" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197">
@@ -14374,11 +14404,11 @@
       <c r="S197" t="s">
         <v>274</v>
       </c>
-      <c r="T197" t="e">
-        <v>#N/A</v>
+      <c r="T197" t="s">
+        <v>274</v>
       </c>
       <c r="U197" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198">
@@ -14439,11 +14469,11 @@
       <c r="S198" t="s">
         <v>274</v>
       </c>
-      <c r="T198" t="e">
-        <v>#N/A</v>
+      <c r="T198" t="s">
+        <v>274</v>
       </c>
       <c r="U198" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199">
@@ -14504,11 +14534,11 @@
       <c r="S199" t="s">
         <v>274</v>
       </c>
-      <c r="T199" t="e">
-        <v>#N/A</v>
+      <c r="T199" t="s">
+        <v>274</v>
       </c>
       <c r="U199" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200">
@@ -14569,11 +14599,11 @@
       <c r="S200" t="s">
         <v>274</v>
       </c>
-      <c r="T200" t="e">
-        <v>#N/A</v>
+      <c r="T200" t="s">
+        <v>274</v>
       </c>
       <c r="U200" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201">
@@ -14634,11 +14664,11 @@
       <c r="S201" t="s">
         <v>274</v>
       </c>
-      <c r="T201" t="e">
-        <v>#N/A</v>
+      <c r="T201" t="s">
+        <v>274</v>
       </c>
       <c r="U201" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202">
@@ -14699,11 +14729,11 @@
       <c r="S202" t="s">
         <v>274</v>
       </c>
-      <c r="T202" t="e">
-        <v>#N/A</v>
+      <c r="T202" t="s">
+        <v>274</v>
       </c>
       <c r="U202" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203">
@@ -14764,11 +14794,11 @@
       <c r="S203" t="s">
         <v>274</v>
       </c>
-      <c r="T203" t="e">
-        <v>#N/A</v>
+      <c r="T203" t="s">
+        <v>274</v>
       </c>
       <c r="U203" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204">
@@ -14829,11 +14859,11 @@
       <c r="S204" t="s">
         <v>274</v>
       </c>
-      <c r="T204" t="e">
-        <v>#N/A</v>
+      <c r="T204" t="s">
+        <v>274</v>
       </c>
       <c r="U204" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205">
@@ -14894,11 +14924,11 @@
       <c r="S205" t="s">
         <v>274</v>
       </c>
-      <c r="T205" t="e">
-        <v>#N/A</v>
+      <c r="T205" t="s">
+        <v>274</v>
       </c>
       <c r="U205" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206">
@@ -14959,11 +14989,11 @@
       <c r="S206" t="s">
         <v>274</v>
       </c>
-      <c r="T206" t="e">
-        <v>#N/A</v>
+      <c r="T206" t="s">
+        <v>274</v>
       </c>
       <c r="U206" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="207">
@@ -15024,11 +15054,11 @@
       <c r="S207" t="s">
         <v>274</v>
       </c>
-      <c r="T207" t="e">
-        <v>#N/A</v>
+      <c r="T207" t="s">
+        <v>274</v>
       </c>
       <c r="U207" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208">
@@ -15089,11 +15119,11 @@
       <c r="S208" t="s">
         <v>308</v>
       </c>
-      <c r="T208" t="e">
-        <v>#N/A</v>
+      <c r="T208" t="s">
+        <v>274</v>
       </c>
       <c r="U208" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="209">
@@ -15130,35 +15160,35 @@
       <c r="K209" t="s">
         <v>287</v>
       </c>
-      <c r="L209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M209" t="e">
-        <v>#N/A</v>
+      <c r="L209" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2.1</v>
       </c>
       <c r="N209" t="s">
         <v>291</v>
       </c>
-      <c r="O209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P209" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q209" t="e">
-        <v>#N/A</v>
+      <c r="O209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>3214.0</v>
       </c>
       <c r="R209" t="s">
         <v>292</v>
       </c>
       <c r="S209" t="s">
-        <v>274</v>
-      </c>
-      <c r="T209" t="e">
-        <v>#N/A</v>
+        <v>307</v>
+      </c>
+      <c r="T209" t="s">
+        <v>274</v>
       </c>
       <c r="U209" t="s">
-        <v>391</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210">
@@ -15219,11 +15249,11 @@
       <c r="S210" t="s">
         <v>309</v>
       </c>
-      <c r="T210" t="e">
-        <v>#N/A</v>
+      <c r="T210" t="s">
+        <v>274</v>
       </c>
       <c r="U210" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211">
@@ -15284,11 +15314,11 @@
       <c r="S211" t="s">
         <v>310</v>
       </c>
-      <c r="T211" t="e">
-        <v>#N/A</v>
+      <c r="T211" t="s">
+        <v>274</v>
       </c>
       <c r="U211" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212">
@@ -15349,11 +15379,11 @@
       <c r="S212" t="s">
         <v>311</v>
       </c>
-      <c r="T212" t="e">
-        <v>#N/A</v>
+      <c r="T212" t="s">
+        <v>274</v>
       </c>
       <c r="U212" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213">
@@ -15414,11 +15444,11 @@
       <c r="S213" t="s">
         <v>312</v>
       </c>
-      <c r="T213" t="e">
-        <v>#N/A</v>
+      <c r="T213" t="s">
+        <v>274</v>
       </c>
       <c r="U213" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214">
@@ -15479,11 +15509,11 @@
       <c r="S214" t="s">
         <v>313</v>
       </c>
-      <c r="T214" t="e">
-        <v>#N/A</v>
+      <c r="T214" t="s">
+        <v>274</v>
       </c>
       <c r="U214" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215">
@@ -15544,11 +15574,11 @@
       <c r="S215" t="s">
         <v>314</v>
       </c>
-      <c r="T215" t="e">
-        <v>#N/A</v>
+      <c r="T215" t="s">
+        <v>274</v>
       </c>
       <c r="U215" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216">
@@ -15609,11 +15639,11 @@
       <c r="S216" t="s">
         <v>315</v>
       </c>
-      <c r="T216" t="e">
-        <v>#N/A</v>
+      <c r="T216" t="s">
+        <v>274</v>
       </c>
       <c r="U216" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="217">
@@ -15674,11 +15704,11 @@
       <c r="S217" t="s">
         <v>307</v>
       </c>
-      <c r="T217" t="e">
-        <v>#N/A</v>
+      <c r="T217" t="s">
+        <v>274</v>
       </c>
       <c r="U217" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218">
@@ -15739,11 +15769,11 @@
       <c r="S218" t="s">
         <v>316</v>
       </c>
-      <c r="T218" t="e">
-        <v>#N/A</v>
+      <c r="T218" t="s">
+        <v>274</v>
       </c>
       <c r="U218" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219">
@@ -15804,11 +15834,11 @@
       <c r="S219" t="s">
         <v>317</v>
       </c>
-      <c r="T219" t="e">
-        <v>#N/A</v>
+      <c r="T219" t="s">
+        <v>274</v>
       </c>
       <c r="U219" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220">
@@ -15869,11 +15899,11 @@
       <c r="S220" t="s">
         <v>309</v>
       </c>
-      <c r="T220" t="e">
-        <v>#N/A</v>
+      <c r="T220" t="s">
+        <v>274</v>
       </c>
       <c r="U220" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221">
@@ -15934,11 +15964,11 @@
       <c r="S221" t="s">
         <v>314</v>
       </c>
-      <c r="T221" t="e">
-        <v>#N/A</v>
+      <c r="T221" t="s">
+        <v>274</v>
       </c>
       <c r="U221" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222">
@@ -15999,11 +16029,11 @@
       <c r="S222" t="s">
         <v>318</v>
       </c>
-      <c r="T222" t="e">
-        <v>#N/A</v>
+      <c r="T222" t="s">
+        <v>274</v>
       </c>
       <c r="U222" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223">
@@ -16064,11 +16094,11 @@
       <c r="S223" t="s">
         <v>319</v>
       </c>
-      <c r="T223" t="e">
-        <v>#N/A</v>
+      <c r="T223" t="s">
+        <v>274</v>
       </c>
       <c r="U223" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224">
@@ -16129,11 +16159,11 @@
       <c r="S224" t="s">
         <v>320</v>
       </c>
-      <c r="T224" t="e">
-        <v>#N/A</v>
+      <c r="T224" t="s">
+        <v>274</v>
       </c>
       <c r="U224" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225">
@@ -16194,11 +16224,11 @@
       <c r="S225" t="s">
         <v>312</v>
       </c>
-      <c r="T225" t="e">
-        <v>#N/A</v>
+      <c r="T225" t="s">
+        <v>274</v>
       </c>
       <c r="U225" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226">
@@ -16259,11 +16289,11 @@
       <c r="S226" t="s">
         <v>307</v>
       </c>
-      <c r="T226" t="e">
-        <v>#N/A</v>
+      <c r="T226" t="s">
+        <v>274</v>
       </c>
       <c r="U226" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="227">
@@ -16324,11 +16354,11 @@
       <c r="S227" t="s">
         <v>310</v>
       </c>
-      <c r="T227" t="e">
-        <v>#N/A</v>
+      <c r="T227" t="s">
+        <v>274</v>
       </c>
       <c r="U227" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228">
@@ -16389,11 +16419,11 @@
       <c r="S228" t="s">
         <v>308</v>
       </c>
-      <c r="T228" t="e">
-        <v>#N/A</v>
+      <c r="T228" t="s">
+        <v>274</v>
       </c>
       <c r="U228" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229">
@@ -16454,11 +16484,11 @@
       <c r="S229" t="s">
         <v>313</v>
       </c>
-      <c r="T229" t="e">
-        <v>#N/A</v>
+      <c r="T229" t="s">
+        <v>274</v>
       </c>
       <c r="U229" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230">
@@ -16519,11 +16549,11 @@
       <c r="S230" t="s">
         <v>315</v>
       </c>
-      <c r="T230" t="e">
-        <v>#N/A</v>
+      <c r="T230" t="s">
+        <v>274</v>
       </c>
       <c r="U230" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231">
@@ -16584,11 +16614,11 @@
       <c r="S231" t="s">
         <v>319</v>
       </c>
-      <c r="T231" t="e">
-        <v>#N/A</v>
+      <c r="T231" t="s">
+        <v>274</v>
       </c>
       <c r="U231" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="232">
@@ -16649,11 +16679,11 @@
       <c r="S232" t="s">
         <v>311</v>
       </c>
-      <c r="T232" t="e">
-        <v>#N/A</v>
+      <c r="T232" t="s">
+        <v>274</v>
       </c>
       <c r="U232" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233">
@@ -16714,11 +16744,11 @@
       <c r="S233" t="s">
         <v>320</v>
       </c>
-      <c r="T233" t="e">
-        <v>#N/A</v>
+      <c r="T233" t="s">
+        <v>274</v>
       </c>
       <c r="U233" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="234">
@@ -16755,35 +16785,35 @@
       <c r="K234" t="s">
         <v>282</v>
       </c>
-      <c r="L234" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M234" t="e">
-        <v>#N/A</v>
+      <c r="L234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.6</v>
       </c>
       <c r="N234" t="s">
         <v>276</v>
       </c>
-      <c r="O234" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P234" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q234" t="e">
-        <v>#N/A</v>
+      <c r="O234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>10000.0</v>
       </c>
       <c r="R234" t="s">
         <v>298</v>
       </c>
       <c r="S234" t="s">
-        <v>274</v>
-      </c>
-      <c r="T234" t="e">
-        <v>#N/A</v>
+        <v>314</v>
+      </c>
+      <c r="T234" t="s">
+        <v>274</v>
       </c>
       <c r="U234" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235">
@@ -16820,35 +16850,35 @@
       <c r="K235" t="s">
         <v>280</v>
       </c>
-      <c r="L235" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M235" t="e">
-        <v>#N/A</v>
+      <c r="L235" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.8</v>
       </c>
       <c r="N235" t="s">
         <v>284</v>
       </c>
-      <c r="O235" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P235" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q235" t="e">
-        <v>#N/A</v>
+      <c r="O235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>16858.0</v>
       </c>
       <c r="R235" t="s">
         <v>296</v>
       </c>
       <c r="S235" t="s">
-        <v>274</v>
-      </c>
-      <c r="T235" t="e">
-        <v>#N/A</v>
+        <v>313</v>
+      </c>
+      <c r="T235" t="s">
+        <v>274</v>
       </c>
       <c r="U235" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236">
@@ -16885,35 +16915,35 @@
       <c r="K236" t="s">
         <v>290</v>
       </c>
-      <c r="L236" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M236" t="e">
-        <v>#N/A</v>
+      <c r="L236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.7</v>
       </c>
       <c r="N236" t="s">
         <v>283</v>
       </c>
-      <c r="O236" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P236" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q236" t="e">
-        <v>#N/A</v>
+      <c r="O236" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>15294.0</v>
       </c>
       <c r="R236" t="s">
         <v>305</v>
       </c>
       <c r="S236" t="s">
-        <v>274</v>
-      </c>
-      <c r="T236" t="e">
-        <v>#N/A</v>
+        <v>310</v>
+      </c>
+      <c r="T236" t="s">
+        <v>274</v>
       </c>
       <c r="U236" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237">
@@ -16950,35 +16980,35 @@
       <c r="K237" t="s">
         <v>277</v>
       </c>
-      <c r="L237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M237" t="e">
-        <v>#N/A</v>
+      <c r="L237" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.6</v>
       </c>
       <c r="N237" t="s">
         <v>279</v>
       </c>
-      <c r="O237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q237" t="e">
-        <v>#N/A</v>
+      <c r="O237" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>6429.0</v>
       </c>
       <c r="R237" t="s">
         <v>293</v>
       </c>
       <c r="S237" t="s">
-        <v>274</v>
-      </c>
-      <c r="T237" t="e">
-        <v>#N/A</v>
+        <v>312</v>
+      </c>
+      <c r="T237" t="s">
+        <v>274</v>
       </c>
       <c r="U237" t="s">
-        <v>407</v>
+        <v>509</v>
       </c>
     </row>
     <row r="238">
@@ -17015,8 +17045,8 @@
       <c r="K238" t="s">
         <v>285</v>
       </c>
-      <c r="L238" t="e">
-        <v>#N/A</v>
+      <c r="L238" t="n">
+        <v>5.0</v>
       </c>
       <c r="M238" t="e">
         <v>#N/A</v>
@@ -17024,26 +17054,26 @@
       <c r="N238" t="s">
         <v>278</v>
       </c>
-      <c r="O238" t="e">
-        <v>#N/A</v>
+      <c r="O238" t="n">
+        <v>0.0</v>
       </c>
       <c r="P238" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Q238" t="e">
-        <v>#N/A</v>
+      <c r="Q238" t="n">
+        <v>16000.0</v>
       </c>
       <c r="R238" t="s">
         <v>301</v>
       </c>
       <c r="S238" t="s">
-        <v>274</v>
-      </c>
-      <c r="T238" t="e">
-        <v>#N/A</v>
+        <v>309</v>
+      </c>
+      <c r="T238" t="s">
+        <v>321</v>
       </c>
       <c r="U238" t="s">
-        <v>410</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239">
@@ -17080,35 +17110,35 @@
       <c r="K239" t="s">
         <v>288</v>
       </c>
-      <c r="L239" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M239" t="e">
-        <v>#N/A</v>
+      <c r="L239" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2.4</v>
       </c>
       <c r="N239" t="s">
         <v>281</v>
       </c>
-      <c r="O239" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P239" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q239" t="e">
-        <v>#N/A</v>
+      <c r="O239" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>5509.0</v>
       </c>
       <c r="R239" t="s">
         <v>303</v>
       </c>
       <c r="S239" t="s">
-        <v>274</v>
-      </c>
-      <c r="T239" t="e">
-        <v>#N/A</v>
+        <v>317</v>
+      </c>
+      <c r="T239" t="s">
+        <v>274</v>
       </c>
       <c r="U239" t="s">
-        <v>430</v>
+        <v>511</v>
       </c>
     </row>
     <row r="240">
@@ -17145,35 +17175,35 @@
       <c r="K240" t="s">
         <v>291</v>
       </c>
-      <c r="L240" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M240" t="e">
-        <v>#N/A</v>
+      <c r="L240" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.0</v>
       </c>
       <c r="N240" t="s">
         <v>289</v>
       </c>
-      <c r="O240" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P240" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q240" t="e">
-        <v>#N/A</v>
+      <c r="O240" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>13208.0</v>
       </c>
       <c r="R240" t="s">
         <v>306</v>
       </c>
       <c r="S240" t="s">
-        <v>274</v>
-      </c>
-      <c r="T240" t="e">
-        <v>#N/A</v>
+        <v>318</v>
+      </c>
+      <c r="T240" t="s">
+        <v>274</v>
       </c>
       <c r="U240" t="s">
-        <v>422</v>
+        <v>512</v>
       </c>
     </row>
     <row r="241">
@@ -17210,35 +17240,35 @@
       <c r="K241" t="s">
         <v>287</v>
       </c>
-      <c r="L241" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M241" t="e">
-        <v>#N/A</v>
+      <c r="L241" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.7</v>
       </c>
       <c r="N241" t="s">
         <v>286</v>
       </c>
-      <c r="O241" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P241" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q241" t="e">
-        <v>#N/A</v>
+      <c r="O241" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>4592.0</v>
       </c>
       <c r="R241" t="s">
         <v>292</v>
       </c>
       <c r="S241" t="s">
-        <v>274</v>
-      </c>
-      <c r="T241" t="e">
-        <v>#N/A</v>
+        <v>316</v>
+      </c>
+      <c r="T241" t="s">
+        <v>274</v>
       </c>
       <c r="U241" t="s">
-        <v>408</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/b1_match_results.xlsx
+++ b/b1_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="530">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -935,48 +935,48 @@
     <t>Planet Group Arena</t>
   </si>
   <si>
+    <t>Kevin Van Damme</t>
+  </si>
+  <si>
+    <t>Wesli De Cremer</t>
+  </si>
+  <si>
+    <t>Simon Bourdeaud'hui</t>
+  </si>
+  <si>
+    <t>Michiel Allaerts</t>
+  </si>
+  <si>
+    <t>Lothar D'Hondt</t>
+  </si>
+  <si>
+    <t>Nicolas Laforge</t>
+  </si>
+  <si>
+    <t>Erik Lambrechts</t>
+  </si>
+  <si>
+    <t>Jasper Vergoote</t>
+  </si>
+  <si>
+    <t>Bert Put</t>
+  </si>
+  <si>
+    <t>Nathan Verboomen</t>
+  </si>
+  <si>
+    <t>Lawrence Visser</t>
+  </si>
+  <si>
+    <t>Wim Smet</t>
+  </si>
+  <si>
     <t>Jan Boterberg</t>
   </si>
   <si>
-    <t>Erik Lambrechts</t>
-  </si>
-  <si>
-    <t>Lothar D'Hondt</t>
-  </si>
-  <si>
     <t>Bram Van Driessche</t>
   </si>
   <si>
-    <t>Wesli De Cremer</t>
-  </si>
-  <si>
-    <t>Kevin Van Damme</t>
-  </si>
-  <si>
-    <t>Jasper Vergoote</t>
-  </si>
-  <si>
-    <t>Nathan Verboomen</t>
-  </si>
-  <si>
-    <t>Nicolas Laforge</t>
-  </si>
-  <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Bert Put</t>
-  </si>
-  <si>
-    <t>Lawrence Visser</t>
-  </si>
-  <si>
-    <t>Simon Bourdeaud'hui</t>
-  </si>
-  <si>
-    <t>Michiel Allaerts</t>
-  </si>
-  <si>
     <t>Match awarded to Antwerp</t>
   </si>
   <si>
@@ -1004,406 +1004,454 @@
     <t>https://fbref.com/en/matches/cd4df90d/Westerlo-Cercle-Brugge-July-28-2024-Belgian-Pro-League</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/f5122f3a/Westerlo-Beerschot-Wilrijk-October-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1bc20d8c/Mechelen-OH-Leuven-October-5-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb46c10d/Kortrijk-Genk-October-5-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bbe2f267/Dender-Charleroi-October-5-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a580446c/Anderlecht-Standard-Liege-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eae23fe1/Antwerp-Cercle-Brugge-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/98a690c2/Club-Brugge-Union-SG-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93fe578f/Sint-Truiden-Gent-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d37de72a/Beerschot-Wilrijk-Anderlecht-October-18-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/911dfef9/Westerlo-Club-Brugge-October-19-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d46fa82/Cercle-Brugge-Dender-October-19-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e997b215/Union-SG-Gent-October-19-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b87e4eaf/Genk-Sint-Truiden-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b625885c/OH-Leuven-Antwerp-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ce55800/Standard-Liege-Charleroi-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b5d4e44/Mechelen-Kortrijk-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/77193015/Beerschot-Wilrijk-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/140e320a/OH-Leuven-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/09f00144/Dender-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/57b6cfb8/Sint-Truiden-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/08ad393c/Club-Brugge-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/33c6b26e/Antwerp-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/1e972a99/Gent-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/e14f61a5/Cercle-Brugge-vs-Union-SG-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/57b6cfb8/Dender-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/33c6b26e/Sint-Truiden-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/27e981a3/Club-Brugge-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/09f00144/Union-SG-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/1e972a99/Antwerp-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/140e320a/Cercle-Brugge-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/08ad393c/Kortrijk-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/51e5a603/Beerschot-Wilrijk-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/09f00144/Sint-Truiden-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/77193015/Antwerp-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/27e981a3/Dender-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/140e320a/Westerlo-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/08ad393c/Cercle-Brugge-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/33c6b26e/Gent-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/1e972a99/Union-SG-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c16e44ce/Club-Brugge-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/868afa3f/Antwerp-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/80328a1e/Club-Brugge-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/33c6b26e/Cercle-Brugge-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/140e320a/Genk-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/09f00144/Beerschot-Wilrijk-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/27e981a3/Union-SG-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/08ad393c/Gent-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/57b6cfb8/Kortrijk-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/09f00144/Kortrijk-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/868afa3f/Club-Brugge-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/140e320a/Standard-Liege-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/1e972a99/Sint-Truiden-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c16e44ce/Cercle-Brugge-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/08ad393c/OH-Leuven-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c2e6b53b/Union-SG-vs-Antwerp-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/51e5a603/Westerlo-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/1e972a99/Kortrijk-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/27e981a3/Standard-Liege-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/09f00144/Club-Brugge-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/51e5a603/Sint-Truiden-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/140e320a/Antwerp-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/08ad393c/Beerschot-Wilrijk-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/09f00144/Antwerp-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/33c6b26e/Beerschot-Wilrijk-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/77193015/Dender-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/1e972a99/Club-Brugge-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/57b6cfb8/Union-SG-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/08ad393c/Sint-Truiden-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/51e5a603/Cercle-Brugge-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/09f00144/Westerlo-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/140e320a/Sint-Truiden-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/08ad393c/Genk-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e14f61a5/Club-Brugge-vs-Union-SG-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/27e981a3/Cercle-Brugge-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/983b4411/Union-SG-Beerschot-Wilrijk-August-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a41d3109/Mechelen-Westerlo-August-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00253441/OH-Leuven-Genk-August-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd16ab58/Sint-Truiden-Charleroi-August-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/591ddbff/Antwerp-Anderlecht-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/935ebc8c/Cercle-Brugge-Kortrijk-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f72dd118/Standard-Liege-Club-Brugge-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c657614e/Gent-Dender-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/57b6cfb8/Club-Brugge-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/140e320a/Kortrijk-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/09f00144/Standard-Liege-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/51e5a603/Union-SG-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/27e981a3/Beerschot-Wilrijk-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/08ad393c/Dender-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/80328a1e/Cercle-Brugge-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/33c6b26e/Kortrijk-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/c16e44ce/Antwerp-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/140e320a/Union-SG-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/51e5a603/Dender-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/09f00144/Cercle-Brugge-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/1e972a99/OH-Leuven-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/868afa3f/Cercle-Brugge-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/09f00144/Genk-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/140e320a/Gent-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/57b6cfb8/Antwerp-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/09f00144/08ad393c/Mechelen-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/77193015/Club-Brugge-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c16e44ce/Union-SG-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/80328a1e/Antwerp-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/27e981a3/Gent-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/1e972a99/Westerlo-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/33c6b26e/Dender-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/140e320a/Dender-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/80328a1e/Union-SG-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/1e972a99/Beerschot-Wilrijk-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/09f00144/OH-Leuven-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c2e6b53b/Club-Brugge-vs-Antwerp-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/80328a1e/Dender-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/33c6b26e/Westerlo-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/77193015/Union-SG-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/09f00144/Gent-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/140e320a/Beerschot-Wilrijk-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/1e972a99/Cercle-Brugge-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/08ad393c/Antwerp-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/08ad393c/Charleroi-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/57b6cfb8/Cercle-Brugge-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/1e972a99/Standard-Liege-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/868afa3f/Beerschot-Wilrijk-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/27e981a3/Antwerp-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/08ad393c/Union-SG-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/33c6b26e/Club-Brugge-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/77193015/Cercle-Brugge-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c2e6b53b/Cercle-Brugge-vs-Antwerp-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/08ad393c/Standard-Liege-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/77193015/Sint-Truiden-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/27e981a3/Westerlo-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/868afa3f/Union-SG-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/51e5a603/Club-Brugge-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/09f00144/Charleroi-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/33c6b26e/Union-SG-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/51e5a603/Antwerp-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e8d2adc4/Club-Brugge-vs-Cercle-Brugge-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/27e981a3/Kortrijk-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/08ad393c/Westerlo-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/80328a1e/Beerschot-Wilrijk-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/1e972a99/Dender-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/83d0ffa2/Standard-Liege-Mechelen-August-9-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a40334d0/Dender-Kortrijk-August-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e5e32eb/Westerlo-Union-SG-August-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6299394b/Anderlecht-OH-Leuven-August-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2348d4c8/Genk-Club-Brugge-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab5a75e3/Antwerp-Sint-Truiden-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2535cdd/Charleroi-Gent-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0be717b1/Cercle-Brugge-Beerschot-Wilrijk-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/51e5a603/Kortrijk-vs-Gent-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/57b6cfb8/Beerschot-Wilrijk-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/09f00144/OH-Leuven-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/1e972a99/Kortrijk-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/140e320a/Dender-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/08ad393c/Standard-Liege-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c2e6b53b/Cercle-Brugge-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e14f61a5/Club-Brugge-vs-Union-SG-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/51e5a603/Sint-Truiden-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/08ad393c/Beerschot-Wilrijk-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/57b6cfb8/Club-Brugge-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/868afa3f/Cercle-Brugge-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/51e5a603/Union-SG-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/1e972a99/Sint-Truiden-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/27e981a3/Antwerp-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/140e320a/Standard-Liege-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/09f00144/Kortrijk-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/77193015/Beerschot-Wilrijk-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/140e320a/OH-Leuven-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/09f00144/Dender-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/57b6cfb8/Sint-Truiden-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/08ad393c/Club-Brugge-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/33c6b26e/Antwerp-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/1e972a99/Gent-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/e14f61a5/Cercle-Brugge-vs-Union-SG-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/57b6cfb8/Dender-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/33c6b26e/Sint-Truiden-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/27e981a3/Club-Brugge-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/09f00144/Union-SG-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/1e972a99/Antwerp-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/140e320a/Cercle-Brugge-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/08ad393c/Kortrijk-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/51e5a603/Beerschot-Wilrijk-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/09f00144/Sint-Truiden-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/77193015/Antwerp-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/27e981a3/Dender-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/140e320a/Westerlo-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/08ad393c/Cercle-Brugge-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/33c6b26e/Gent-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/1e972a99/Union-SG-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c16e44ce/Club-Brugge-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/868afa3f/Antwerp-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/80328a1e/Club-Brugge-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/33c6b26e/Cercle-Brugge-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/140e320a/Genk-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/09f00144/Beerschot-Wilrijk-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/27e981a3/Union-SG-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/08ad393c/Gent-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/57b6cfb8/Kortrijk-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/868afa3f/Club-Brugge-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c16e44ce/Cercle-Brugge-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/08ad393c/OH-Leuven-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c2e6b53b/Union-SG-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/51e5a603/Westerlo-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/27e981a3/Standard-Liege-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/09f00144/Club-Brugge-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/140e320a/Antwerp-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/09f00144/Antwerp-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/33c6b26e/Beerschot-Wilrijk-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/77193015/Dender-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/1e972a99/Club-Brugge-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/57b6cfb8/Union-SG-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/08ad393c/Sint-Truiden-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/51e5a603/Cercle-Brugge-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/09f00144/Westerlo-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/140e320a/Sint-Truiden-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/08ad393c/Genk-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/27e981a3/Cercle-Brugge-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/983b4411/Union-SG-Beerschot-Wilrijk-August-2-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a41d3109/Mechelen-Westerlo-August-3-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/00253441/OH-Leuven-Genk-August-3-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bd16ab58/Sint-Truiden-Charleroi-August-3-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/591ddbff/Antwerp-Anderlecht-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/935ebc8c/Cercle-Brugge-Kortrijk-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f72dd118/Standard-Liege-Club-Brugge-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c657614e/Gent-Dender-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/140e320a/Kortrijk-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/09f00144/Standard-Liege-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/27e981a3/Beerschot-Wilrijk-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/08ad393c/Dender-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/80328a1e/Cercle-Brugge-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/33c6b26e/Kortrijk-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/c16e44ce/Antwerp-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/140e320a/Union-SG-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/51e5a603/Dender-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/09f00144/Cercle-Brugge-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/1e972a99/OH-Leuven-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/09f00144/Genk-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/140e320a/Gent-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/57b6cfb8/Antwerp-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/09f00144/08ad393c/Mechelen-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/77193015/Club-Brugge-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c16e44ce/Union-SG-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/80328a1e/Antwerp-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/27e981a3/Gent-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/1e972a99/Westerlo-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/33c6b26e/Dender-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/80328a1e/Union-SG-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/1e972a99/Beerschot-Wilrijk-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c2e6b53b/Club-Brugge-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/80328a1e/Dender-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/33c6b26e/Westerlo-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/77193015/Union-SG-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/09f00144/Gent-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/140e320a/Beerschot-Wilrijk-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/1e972a99/Cercle-Brugge-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/08ad393c/Antwerp-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/08ad393c/Charleroi-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/57b6cfb8/Cercle-Brugge-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/1e972a99/Standard-Liege-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/868afa3f/Beerschot-Wilrijk-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/08ad393c/Union-SG-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/33c6b26e/Club-Brugge-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/77193015/Cercle-Brugge-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/77193015/Sint-Truiden-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/27e981a3/Westerlo-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/868afa3f/Union-SG-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/51e5a603/Club-Brugge-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/09f00144/Charleroi-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/33c6b26e/Union-SG-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/51e5a603/Antwerp-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e8d2adc4/Club-Brugge-vs-Cercle-Brugge-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/27e981a3/Kortrijk-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/08ad393c/Westerlo-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/80328a1e/Beerschot-Wilrijk-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/1e972a99/Dender-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/83d0ffa2/Standard-Liege-Mechelen-August-9-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a40334d0/Dender-Kortrijk-August-10-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3e5e32eb/Westerlo-Union-SG-August-10-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6299394b/Anderlecht-OH-Leuven-August-10-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2348d4c8/Genk-Club-Brugge-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ab5a75e3/Antwerp-Sint-Truiden-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c2535cdd/Charleroi-Gent-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/0be717b1/Cercle-Brugge-Beerschot-Wilrijk-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/51e5a603/Kortrijk-vs-Gent-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/27e981a3/Sint-Truiden-vs-OH-Leuven-History</t>
@@ -2225,29 +2273,29 @@
       <c r="K10" t="s">
         <v>283</v>
       </c>
-      <c r="L10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M10" t="e">
-        <v>#N/A</v>
+      <c r="L10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.6</v>
       </c>
       <c r="N10" t="s">
         <v>278</v>
       </c>
-      <c r="O10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" t="e">
-        <v>#N/A</v>
+      <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6000.0</v>
       </c>
       <c r="R10" t="s">
         <v>299</v>
       </c>
       <c r="S10" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="T10" t="s">
         <v>274</v>
@@ -2290,29 +2338,29 @@
       <c r="K11" t="s">
         <v>284</v>
       </c>
-      <c r="L11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
+      <c r="L11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.3</v>
       </c>
       <c r="N11" t="s">
         <v>289</v>
       </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" t="e">
-        <v>#N/A</v>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>11678.0</v>
       </c>
       <c r="R11" t="s">
         <v>300</v>
       </c>
       <c r="S11" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="T11" t="s">
         <v>274</v>
@@ -2355,29 +2403,29 @@
       <c r="K12" t="s">
         <v>281</v>
       </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M12" t="e">
-        <v>#N/A</v>
+      <c r="L12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9</v>
       </c>
       <c r="N12" t="s">
         <v>280</v>
       </c>
-      <c r="O12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" t="e">
-        <v>#N/A</v>
+      <c r="O12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6486.0</v>
       </c>
       <c r="R12" t="s">
         <v>297</v>
       </c>
       <c r="S12" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="T12" t="s">
         <v>274</v>
@@ -2420,29 +2468,29 @@
       <c r="K13" t="s">
         <v>277</v>
       </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+      <c r="L13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5</v>
       </c>
       <c r="N13" t="s">
         <v>282</v>
       </c>
-      <c r="O13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" t="e">
-        <v>#N/A</v>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3500.0</v>
       </c>
       <c r="R13" t="s">
         <v>293</v>
       </c>
       <c r="S13" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="T13" t="s">
         <v>274</v>
@@ -2485,29 +2533,29 @@
       <c r="K14" t="s">
         <v>279</v>
       </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M14" t="e">
-        <v>#N/A</v>
+      <c r="L14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8</v>
       </c>
       <c r="N14" t="s">
         <v>290</v>
       </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" t="e">
-        <v>#N/A</v>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>20000.0</v>
       </c>
       <c r="R14" t="s">
         <v>295</v>
       </c>
       <c r="S14" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="T14" t="s">
         <v>274</v>
@@ -2550,29 +2598,29 @@
       <c r="K15" t="s">
         <v>285</v>
       </c>
-      <c r="L15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M15" t="e">
-        <v>#N/A</v>
+      <c r="L15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.0</v>
       </c>
       <c r="N15" t="s">
         <v>287</v>
       </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" t="e">
-        <v>#N/A</v>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>12500.0</v>
       </c>
       <c r="R15" t="s">
         <v>301</v>
       </c>
       <c r="S15" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="T15" t="s">
         <v>274</v>
@@ -2615,29 +2663,29 @@
       <c r="K16" t="s">
         <v>276</v>
       </c>
-      <c r="L16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#N/A</v>
+      <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.0</v>
       </c>
       <c r="N16" t="s">
         <v>288</v>
       </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" t="e">
-        <v>#N/A</v>
+      <c r="O16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>22450.0</v>
       </c>
       <c r="R16" t="s">
         <v>292</v>
       </c>
       <c r="S16" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="T16" t="s">
         <v>274</v>
@@ -2680,29 +2728,29 @@
       <c r="K17" t="s">
         <v>286</v>
       </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M17" t="e">
-        <v>#N/A</v>
+      <c r="L17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.0</v>
       </c>
       <c r="N17" t="s">
         <v>291</v>
       </c>
-      <c r="O17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#N/A</v>
+      <c r="O17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5169.0</v>
       </c>
       <c r="R17" t="s">
         <v>302</v>
       </c>
       <c r="S17" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="T17" t="s">
         <v>274</v>
@@ -2745,29 +2793,29 @@
       <c r="K18" t="s">
         <v>278</v>
       </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
-        <v>#N/A</v>
+      <c r="L18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
       </c>
       <c r="N18" t="s">
         <v>279</v>
       </c>
-      <c r="O18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" t="e">
-        <v>#N/A</v>
+      <c r="O18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8799.0</v>
       </c>
       <c r="R18" t="s">
         <v>294</v>
       </c>
       <c r="S18" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="T18" t="s">
         <v>274</v>
@@ -2810,29 +2858,29 @@
       <c r="K19" t="s">
         <v>283</v>
       </c>
-      <c r="L19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M19" t="e">
-        <v>#N/A</v>
+      <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.0</v>
       </c>
       <c r="N19" t="s">
         <v>276</v>
       </c>
-      <c r="O19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" t="e">
-        <v>#N/A</v>
+      <c r="O19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8034.0</v>
       </c>
       <c r="R19" t="s">
         <v>299</v>
       </c>
       <c r="S19" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="T19" t="s">
         <v>274</v>
@@ -2875,29 +2923,29 @@
       <c r="K20" t="s">
         <v>287</v>
       </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M20" t="e">
-        <v>#N/A</v>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9</v>
       </c>
       <c r="N20" t="s">
         <v>277</v>
       </c>
-      <c r="O20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" t="e">
-        <v>#N/A</v>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4859.0</v>
       </c>
       <c r="R20" t="s">
         <v>292</v>
       </c>
       <c r="S20" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="T20" t="s">
         <v>274</v>
@@ -2940,29 +2988,29 @@
       <c r="K21" t="s">
         <v>288</v>
       </c>
-      <c r="L21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M21" t="e">
-        <v>#N/A</v>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.3</v>
       </c>
       <c r="N21" t="s">
         <v>291</v>
       </c>
-      <c r="O21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" t="e">
-        <v>#N/A</v>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>8600.0</v>
       </c>
       <c r="R21" t="s">
         <v>303</v>
       </c>
       <c r="S21" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="T21" t="s">
         <v>274</v>
@@ -3005,29 +3053,29 @@
       <c r="K22" t="s">
         <v>280</v>
       </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M22" t="e">
-        <v>#N/A</v>
+      <c r="L22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.3</v>
       </c>
       <c r="N22" t="s">
         <v>286</v>
       </c>
-      <c r="O22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" t="e">
-        <v>#N/A</v>
+      <c r="O22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>21899.0</v>
       </c>
       <c r="R22" t="s">
         <v>296</v>
       </c>
       <c r="S22" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="T22" t="s">
         <v>274</v>
@@ -3070,29 +3118,29 @@
       <c r="K23" t="s">
         <v>289</v>
       </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M23" t="e">
-        <v>#N/A</v>
+      <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
       </c>
       <c r="N23" t="s">
         <v>285</v>
       </c>
-      <c r="O23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" t="e">
-        <v>#N/A</v>
+      <c r="O23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>8703.0</v>
       </c>
       <c r="R23" t="s">
         <v>304</v>
       </c>
       <c r="S23" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="T23" t="s">
         <v>274</v>
@@ -3135,29 +3183,29 @@
       <c r="K24" t="s">
         <v>290</v>
       </c>
-      <c r="L24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="e">
-        <v>#N/A</v>
+      <c r="L24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.6</v>
       </c>
       <c r="N24" t="s">
         <v>282</v>
       </c>
-      <c r="O24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" t="e">
-        <v>#N/A</v>
+      <c r="O24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22238.0</v>
       </c>
       <c r="R24" t="s">
         <v>305</v>
       </c>
       <c r="S24" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="T24" t="s">
         <v>274</v>
@@ -3200,29 +3248,29 @@
       <c r="K25" t="s">
         <v>284</v>
       </c>
-      <c r="L25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M25" t="e">
-        <v>#N/A</v>
+      <c r="L25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.7</v>
       </c>
       <c r="N25" t="s">
         <v>281</v>
       </c>
-      <c r="O25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" t="e">
-        <v>#N/A</v>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>10922.0</v>
       </c>
       <c r="R25" t="s">
         <v>300</v>
       </c>
       <c r="S25" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="T25" t="s">
         <v>274</v>
@@ -5373,7 +5421,7 @@
         <v>274</v>
       </c>
       <c r="U58" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59">
@@ -5438,7 +5486,7 @@
         <v>274</v>
       </c>
       <c r="U59" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60">
@@ -5503,7 +5551,7 @@
         <v>274</v>
       </c>
       <c r="U60" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61">
@@ -5568,7 +5616,7 @@
         <v>274</v>
       </c>
       <c r="U61" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62">
@@ -5633,7 +5681,7 @@
         <v>274</v>
       </c>
       <c r="U62" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63">
@@ -5698,7 +5746,7 @@
         <v>274</v>
       </c>
       <c r="U63" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64">
@@ -5763,7 +5811,7 @@
         <v>274</v>
       </c>
       <c r="U64" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65">
@@ -5828,7 +5876,7 @@
         <v>274</v>
       </c>
       <c r="U65" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66">
@@ -5893,7 +5941,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67">
@@ -5958,7 +6006,7 @@
         <v>274</v>
       </c>
       <c r="U67" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68">
@@ -6023,7 +6071,7 @@
         <v>274</v>
       </c>
       <c r="U68" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69">
@@ -6088,7 +6136,7 @@
         <v>274</v>
       </c>
       <c r="U69" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70">
@@ -6153,7 +6201,7 @@
         <v>274</v>
       </c>
       <c r="U70" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71">
@@ -6283,7 +6331,7 @@
         <v>274</v>
       </c>
       <c r="U72" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73">
@@ -6413,7 +6461,7 @@
         <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75">
@@ -6478,7 +6526,7 @@
         <v>274</v>
       </c>
       <c r="U75" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76">
@@ -6608,7 +6656,7 @@
         <v>274</v>
       </c>
       <c r="U77" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78">
@@ -6673,7 +6721,7 @@
         <v>274</v>
       </c>
       <c r="U78" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79">
@@ -6738,7 +6786,7 @@
         <v>274</v>
       </c>
       <c r="U79" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80">
@@ -6803,7 +6851,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81">
@@ -6868,7 +6916,7 @@
         <v>274</v>
       </c>
       <c r="U81" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82">
@@ -6933,7 +6981,7 @@
         <v>274</v>
       </c>
       <c r="U82" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83">
@@ -6998,7 +7046,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84">
@@ -7193,7 +7241,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87">
@@ -7323,7 +7371,7 @@
         <v>274</v>
       </c>
       <c r="U88" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89">
@@ -7388,7 +7436,7 @@
         <v>274</v>
       </c>
       <c r="U89" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90">
@@ -7453,7 +7501,7 @@
         <v>274</v>
       </c>
       <c r="U90" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91">
@@ -7518,7 +7566,7 @@
         <v>274</v>
       </c>
       <c r="U91" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92">
@@ -7583,7 +7631,7 @@
         <v>274</v>
       </c>
       <c r="U92" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93">
@@ -7648,7 +7696,7 @@
         <v>274</v>
       </c>
       <c r="U93" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94">
@@ -7713,7 +7761,7 @@
         <v>274</v>
       </c>
       <c r="U94" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95">
@@ -7778,7 +7826,7 @@
         <v>274</v>
       </c>
       <c r="U95" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96">
@@ -7843,7 +7891,7 @@
         <v>274</v>
       </c>
       <c r="U96" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97">
@@ -7902,13 +7950,13 @@
         <v>306</v>
       </c>
       <c r="S97" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="T97" t="s">
         <v>274</v>
       </c>
       <c r="U97" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98">
@@ -8038,7 +8086,7 @@
         <v>274</v>
       </c>
       <c r="U99" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100">
@@ -8103,7 +8151,7 @@
         <v>274</v>
       </c>
       <c r="U100" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101">
@@ -8168,7 +8216,7 @@
         <v>274</v>
       </c>
       <c r="U101" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102">
@@ -8233,7 +8281,7 @@
         <v>274</v>
       </c>
       <c r="U102" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103">
@@ -8298,7 +8346,7 @@
         <v>274</v>
       </c>
       <c r="U103" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104">
@@ -8363,7 +8411,7 @@
         <v>274</v>
       </c>
       <c r="U104" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105">
@@ -8428,7 +8476,7 @@
         <v>274</v>
       </c>
       <c r="U105" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106">
@@ -8493,7 +8541,7 @@
         <v>274</v>
       </c>
       <c r="U106" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107">
@@ -8558,7 +8606,7 @@
         <v>274</v>
       </c>
       <c r="U107" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108">
@@ -8623,7 +8671,7 @@
         <v>274</v>
       </c>
       <c r="U108" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109">
@@ -8688,7 +8736,7 @@
         <v>274</v>
       </c>
       <c r="U109" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110">
@@ -8753,7 +8801,7 @@
         <v>274</v>
       </c>
       <c r="U110" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111">
@@ -8883,7 +8931,7 @@
         <v>274</v>
       </c>
       <c r="U112" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113">
@@ -9013,7 +9061,7 @@
         <v>274</v>
       </c>
       <c r="U114" t="s">
-        <v>340</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115">
@@ -9208,7 +9256,7 @@
         <v>274</v>
       </c>
       <c r="U117" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118">
@@ -9273,7 +9321,7 @@
         <v>274</v>
       </c>
       <c r="U118" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119">
@@ -9403,7 +9451,7 @@
         <v>274</v>
       </c>
       <c r="U120" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121">
@@ -9533,7 +9581,7 @@
         <v>274</v>
       </c>
       <c r="U122" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123">
@@ -9663,7 +9711,7 @@
         <v>274</v>
       </c>
       <c r="U124" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125">
@@ -9728,7 +9776,7 @@
         <v>274</v>
       </c>
       <c r="U125" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126">
@@ -9793,7 +9841,7 @@
         <v>274</v>
       </c>
       <c r="U126" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="127">
@@ -9858,7 +9906,7 @@
         <v>274</v>
       </c>
       <c r="U127" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128">
@@ -9923,7 +9971,7 @@
         <v>274</v>
       </c>
       <c r="U128" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129">
@@ -9988,7 +10036,7 @@
         <v>274</v>
       </c>
       <c r="U129" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130">
@@ -10053,7 +10101,7 @@
         <v>274</v>
       </c>
       <c r="U130" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131">
@@ -10183,7 +10231,7 @@
         <v>274</v>
       </c>
       <c r="U132" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133">
@@ -10313,7 +10361,7 @@
         <v>274</v>
       </c>
       <c r="U134" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135">
@@ -10443,7 +10491,7 @@
         <v>274</v>
       </c>
       <c r="U136" t="s">
-        <v>331</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137">
@@ -10508,7 +10556,7 @@
         <v>274</v>
       </c>
       <c r="U137" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138">
@@ -10573,7 +10621,7 @@
         <v>274</v>
       </c>
       <c r="U138" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139">
@@ -10638,7 +10686,7 @@
         <v>274</v>
       </c>
       <c r="U139" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140">
@@ -10768,7 +10816,7 @@
         <v>274</v>
       </c>
       <c r="U141" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142">
@@ -10833,7 +10881,7 @@
         <v>274</v>
       </c>
       <c r="U142" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143">
@@ -10898,7 +10946,7 @@
         <v>274</v>
       </c>
       <c r="U143" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144">
@@ -10963,7 +11011,7 @@
         <v>274</v>
       </c>
       <c r="U144" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145">
@@ -11028,7 +11076,7 @@
         <v>274</v>
       </c>
       <c r="U145" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146">
@@ -11093,7 +11141,7 @@
         <v>274</v>
       </c>
       <c r="U146" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147">
@@ -11353,7 +11401,7 @@
         <v>274</v>
       </c>
       <c r="U150" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151">
@@ -11548,7 +11596,7 @@
         <v>274</v>
       </c>
       <c r="U153" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154">
@@ -11613,7 +11661,7 @@
         <v>274</v>
       </c>
       <c r="U154" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155">
@@ -11743,7 +11791,7 @@
         <v>274</v>
       </c>
       <c r="U156" t="s">
-        <v>343</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157">
@@ -11808,7 +11856,7 @@
         <v>274</v>
       </c>
       <c r="U157" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158">
@@ -11938,7 +11986,7 @@
         <v>274</v>
       </c>
       <c r="U159" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160">
@@ -12003,7 +12051,7 @@
         <v>274</v>
       </c>
       <c r="U160" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161">
@@ -12133,7 +12181,7 @@
         <v>274</v>
       </c>
       <c r="U162" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163">
@@ -12263,7 +12311,7 @@
         <v>274</v>
       </c>
       <c r="U164" t="s">
-        <v>334</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165">
@@ -12393,7 +12441,7 @@
         <v>274</v>
       </c>
       <c r="U166" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167">
@@ -12458,7 +12506,7 @@
         <v>274</v>
       </c>
       <c r="U167" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168">
@@ -12523,7 +12571,7 @@
         <v>274</v>
       </c>
       <c r="U168" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169">
@@ -12588,7 +12636,7 @@
         <v>274</v>
       </c>
       <c r="U169" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170">
@@ -12653,7 +12701,7 @@
         <v>274</v>
       </c>
       <c r="U170" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171">
@@ -12718,7 +12766,7 @@
         <v>274</v>
       </c>
       <c r="U171" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172">
@@ -12783,7 +12831,7 @@
         <v>274</v>
       </c>
       <c r="U172" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173">
@@ -12848,7 +12896,7 @@
         <v>274</v>
       </c>
       <c r="U173" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174">
@@ -12913,7 +12961,7 @@
         <v>274</v>
       </c>
       <c r="U174" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175">
@@ -12978,7 +13026,7 @@
         <v>274</v>
       </c>
       <c r="U175" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176">
@@ -13043,7 +13091,7 @@
         <v>274</v>
       </c>
       <c r="U176" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177">
@@ -13108,7 +13156,7 @@
         <v>274</v>
       </c>
       <c r="U177" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178">
@@ -13173,7 +13221,7 @@
         <v>274</v>
       </c>
       <c r="U178" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179">
@@ -13238,7 +13286,7 @@
         <v>274</v>
       </c>
       <c r="U179" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180">
@@ -13303,7 +13351,7 @@
         <v>274</v>
       </c>
       <c r="U180" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181">
@@ -13368,7 +13416,7 @@
         <v>274</v>
       </c>
       <c r="U181" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182">
@@ -13433,7 +13481,7 @@
         <v>274</v>
       </c>
       <c r="U182" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="183">
@@ -13498,7 +13546,7 @@
         <v>274</v>
       </c>
       <c r="U183" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184">
@@ -13563,7 +13611,7 @@
         <v>274</v>
       </c>
       <c r="U184" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185">
@@ -13628,7 +13676,7 @@
         <v>274</v>
       </c>
       <c r="U185" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186">
@@ -13693,7 +13741,7 @@
         <v>274</v>
       </c>
       <c r="U186" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187">
@@ -13758,7 +13806,7 @@
         <v>274</v>
       </c>
       <c r="U187" t="s">
-        <v>330</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188">
@@ -13823,7 +13871,7 @@
         <v>274</v>
       </c>
       <c r="U188" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189">
@@ -13953,7 +14001,7 @@
         <v>274</v>
       </c>
       <c r="U190" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191">
@@ -14213,7 +14261,7 @@
         <v>274</v>
       </c>
       <c r="U194" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195">
@@ -14278,7 +14326,7 @@
         <v>274</v>
       </c>
       <c r="U195" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="196">
@@ -14343,7 +14391,7 @@
         <v>274</v>
       </c>
       <c r="U196" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197">
@@ -14408,7 +14456,7 @@
         <v>274</v>
       </c>
       <c r="U197" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198">
@@ -14473,7 +14521,7 @@
         <v>274</v>
       </c>
       <c r="U198" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199">
@@ -14538,7 +14586,7 @@
         <v>274</v>
       </c>
       <c r="U199" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="200">
@@ -14603,7 +14651,7 @@
         <v>274</v>
       </c>
       <c r="U200" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="201">
@@ -14668,7 +14716,7 @@
         <v>274</v>
       </c>
       <c r="U201" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202">
@@ -14733,7 +14781,7 @@
         <v>274</v>
       </c>
       <c r="U202" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203">
@@ -14798,7 +14846,7 @@
         <v>274</v>
       </c>
       <c r="U203" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204">
@@ -14863,7 +14911,7 @@
         <v>274</v>
       </c>
       <c r="U204" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="205">
@@ -14928,7 +14976,7 @@
         <v>274</v>
       </c>
       <c r="U205" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206">
@@ -14993,7 +15041,7 @@
         <v>274</v>
       </c>
       <c r="U206" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207">
@@ -15058,7 +15106,7 @@
         <v>274</v>
       </c>
       <c r="U207" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208">
@@ -15117,13 +15165,13 @@
         <v>295</v>
       </c>
       <c r="S208" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="T208" t="s">
         <v>274</v>
       </c>
       <c r="U208" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209">
@@ -15182,13 +15230,13 @@
         <v>292</v>
       </c>
       <c r="S209" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="T209" t="s">
         <v>274</v>
       </c>
       <c r="U209" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210">
@@ -15247,13 +15295,13 @@
         <v>296</v>
       </c>
       <c r="S210" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T210" t="s">
         <v>274</v>
       </c>
       <c r="U210" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211">
@@ -15312,13 +15360,13 @@
         <v>300</v>
       </c>
       <c r="S211" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="T211" t="s">
         <v>274</v>
       </c>
       <c r="U211" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212">
@@ -15377,13 +15425,13 @@
         <v>294</v>
       </c>
       <c r="S212" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="T212" t="s">
         <v>274</v>
       </c>
       <c r="U212" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213">
@@ -15442,13 +15490,13 @@
         <v>304</v>
       </c>
       <c r="S213" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="T213" t="s">
         <v>274</v>
       </c>
       <c r="U213" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="214">
@@ -15507,13 +15555,13 @@
         <v>292</v>
       </c>
       <c r="S214" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T214" t="s">
         <v>274</v>
       </c>
       <c r="U214" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215">
@@ -15572,13 +15620,13 @@
         <v>306</v>
       </c>
       <c r="S215" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T215" t="s">
         <v>274</v>
       </c>
       <c r="U215" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216">
@@ -15637,13 +15685,13 @@
         <v>303</v>
       </c>
       <c r="S216" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T216" t="s">
         <v>274</v>
       </c>
       <c r="U216" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217">
@@ -15702,13 +15750,13 @@
         <v>297</v>
       </c>
       <c r="S217" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="T217" t="s">
         <v>274</v>
       </c>
       <c r="U217" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218">
@@ -15767,13 +15815,13 @@
         <v>293</v>
       </c>
       <c r="S218" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="T218" t="s">
         <v>274</v>
       </c>
       <c r="U218" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219">
@@ -15832,13 +15880,13 @@
         <v>292</v>
       </c>
       <c r="S219" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T219" t="s">
         <v>274</v>
       </c>
       <c r="U219" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="220">
@@ -15897,13 +15945,13 @@
         <v>297</v>
       </c>
       <c r="S220" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T220" t="s">
         <v>274</v>
       </c>
       <c r="U220" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221">
@@ -15962,13 +16010,13 @@
         <v>295</v>
       </c>
       <c r="S221" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T221" t="s">
         <v>274</v>
       </c>
       <c r="U221" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222">
@@ -16027,13 +16075,13 @@
         <v>301</v>
       </c>
       <c r="S222" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T222" t="s">
         <v>274</v>
       </c>
       <c r="U222" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223">
@@ -16092,13 +16140,13 @@
         <v>302</v>
       </c>
       <c r="S223" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="T223" t="s">
         <v>274</v>
       </c>
       <c r="U223" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224">
@@ -16157,13 +16205,13 @@
         <v>298</v>
       </c>
       <c r="S224" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="T224" t="s">
         <v>274</v>
       </c>
       <c r="U224" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="225">
@@ -16222,13 +16270,13 @@
         <v>306</v>
       </c>
       <c r="S225" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="T225" t="s">
         <v>274</v>
       </c>
       <c r="U225" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226">
@@ -16287,13 +16335,13 @@
         <v>305</v>
       </c>
       <c r="S226" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="T226" t="s">
         <v>274</v>
       </c>
       <c r="U226" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="227">
@@ -16352,13 +16400,13 @@
         <v>294</v>
       </c>
       <c r="S227" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="T227" t="s">
         <v>274</v>
       </c>
       <c r="U227" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="228">
@@ -16417,13 +16465,13 @@
         <v>299</v>
       </c>
       <c r="S228" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="T228" t="s">
         <v>274</v>
       </c>
       <c r="U228" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229">
@@ -16482,13 +16530,13 @@
         <v>295</v>
       </c>
       <c r="S229" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T229" t="s">
         <v>274</v>
       </c>
       <c r="U229" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230">
@@ -16547,13 +16595,13 @@
         <v>292</v>
       </c>
       <c r="S230" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T230" t="s">
         <v>274</v>
       </c>
       <c r="U230" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
     </row>
     <row r="231">
@@ -16612,13 +16660,13 @@
         <v>300</v>
       </c>
       <c r="S231" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="T231" t="s">
         <v>274</v>
       </c>
       <c r="U231" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232">
@@ -16677,13 +16725,13 @@
         <v>296</v>
       </c>
       <c r="S232" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="T232" t="s">
         <v>274</v>
       </c>
       <c r="U232" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="233">
@@ -16742,13 +16790,13 @@
         <v>304</v>
       </c>
       <c r="S233" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="T233" t="s">
         <v>274</v>
       </c>
       <c r="U233" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="234">
@@ -16807,13 +16855,13 @@
         <v>298</v>
       </c>
       <c r="S234" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T234" t="s">
         <v>274</v>
       </c>
       <c r="U234" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="235">
@@ -16872,13 +16920,13 @@
         <v>296</v>
       </c>
       <c r="S235" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T235" t="s">
         <v>274</v>
       </c>
       <c r="U235" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="236">
@@ -16937,13 +16985,13 @@
         <v>305</v>
       </c>
       <c r="S236" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="T236" t="s">
         <v>274</v>
       </c>
       <c r="U236" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237">
@@ -17002,13 +17050,13 @@
         <v>293</v>
       </c>
       <c r="S237" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="T237" t="s">
         <v>274</v>
       </c>
       <c r="U237" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="238">
@@ -17067,13 +17115,13 @@
         <v>301</v>
       </c>
       <c r="S238" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T238" t="s">
         <v>321</v>
       </c>
       <c r="U238" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="239">
@@ -17132,13 +17180,13 @@
         <v>303</v>
       </c>
       <c r="S239" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T239" t="s">
         <v>274</v>
       </c>
       <c r="U239" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240">
@@ -17197,13 +17245,13 @@
         <v>306</v>
       </c>
       <c r="S240" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T240" t="s">
         <v>274</v>
       </c>
       <c r="U240" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="241">
@@ -17262,13 +17310,13 @@
         <v>292</v>
       </c>
       <c r="S241" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="T241" t="s">
         <v>274</v>
       </c>
       <c r="U241" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/b1_match_results.xlsx
+++ b/b1_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="547">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -971,12 +971,12 @@
     <t>Wim Smet</t>
   </si>
   <si>
+    <t>Bram Van Driessche</t>
+  </si>
+  <si>
     <t>Jan Boterberg</t>
   </si>
   <si>
-    <t>Bram Van Driessche</t>
-  </si>
-  <si>
     <t>Match awarded to Antwerp</t>
   </si>
   <si>
@@ -1052,412 +1052,463 @@
     <t>https://fbref.com/en/matches/7b5d4e44/Mechelen-Kortrijk-October-20-2024-Belgian-Pro-League</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/7489c904/Kortrijk-Beerschot-Wilrijk-October-25-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57d877a2/Charleroi-OH-Leuven-October-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5beaaa3c/Dender-Mechelen-October-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5446f052/Sint-Truiden-Westerlo-October-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ec32943/Club-Brugge-Anderlecht-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fe5a9bc/Antwerp-Standard-Liege-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b76c33de/Gent-Genk-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c868c5e5/Union-SG-Cercle-Brugge-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4fc679bd/Westerlo-Dender-November-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/660e2ec2/Standard-Liege-Sint-Truiden-November-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/07f148d0/OH-Leuven-Club-Brugge-November-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56f289d4/Mechelen-Union-SG-November-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e8a7ec9/Genk-Antwerp-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/86a65b65/Cercle-Brugge-Charleroi-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d9647b38/Anderlecht-Kortrijk-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aaed6d90/Beerschot-Wilrijk-Gent-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57d86365/Sint-Truiden-Mechelen-November-8-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/77193015/Antwerp-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/27e981a3/Dender-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/140e320a/Westerlo-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/08ad393c/Cercle-Brugge-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/33c6b26e/Gent-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/1e972a99/Union-SG-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c16e44ce/Club-Brugge-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/868afa3f/Antwerp-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/80328a1e/Club-Brugge-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/33c6b26e/Cercle-Brugge-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/140e320a/Genk-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/09f00144/Beerschot-Wilrijk-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/27e981a3/Union-SG-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/08ad393c/Gent-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/57b6cfb8/Kortrijk-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/09f00144/Kortrijk-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/868afa3f/Club-Brugge-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/140e320a/Standard-Liege-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/1e972a99/Sint-Truiden-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c16e44ce/Cercle-Brugge-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/08ad393c/OH-Leuven-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c2e6b53b/Union-SG-vs-Antwerp-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/51e5a603/Westerlo-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/1e972a99/Kortrijk-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/27e981a3/Standard-Liege-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/09f00144/Club-Brugge-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/51e5a603/Sint-Truiden-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/140e320a/Antwerp-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/e14f61a5/Cercle-Brugge-vs-Union-SG-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/08ad393c/Beerschot-Wilrijk-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/57b6cfb8/Dender-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/09f00144/Antwerp-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/33c6b26e/Beerschot-Wilrijk-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/140e320a/OH-Leuven-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/77193015/Dender-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/1e972a99/Club-Brugge-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/57b6cfb8/Union-SG-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/08ad393c/Sint-Truiden-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/51e5a603/Cercle-Brugge-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/09f00144/Westerlo-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/140e320a/Sint-Truiden-vs-Charleroi-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/77193015/Beerschot-Wilrijk-vs-Kortrijk-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/140e320a/OH-Leuven-vs-Charleroi-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/08ad393c/Genk-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e14f61a5/Club-Brugge-vs-Union-SG-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/27e981a3/Cercle-Brugge-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/983b4411/Union-SG-Beerschot-Wilrijk-August-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a41d3109/Mechelen-Westerlo-August-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00253441/OH-Leuven-Genk-August-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd16ab58/Sint-Truiden-Charleroi-August-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/591ddbff/Antwerp-Anderlecht-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/935ebc8c/Cercle-Brugge-Kortrijk-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f72dd118/Standard-Liege-Club-Brugge-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c657614e/Gent-Dender-August-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/1e972a99/Antwerp-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/57b6cfb8/Club-Brugge-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/140e320a/Kortrijk-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/09f00144/Standard-Liege-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/51e5a603/Union-SG-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/27e981a3/Beerschot-Wilrijk-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/08ad393c/Dender-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/80328a1e/Cercle-Brugge-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/33c6b26e/Kortrijk-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/c16e44ce/Antwerp-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/140e320a/Union-SG-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/51e5a603/Dender-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/09f00144/Cercle-Brugge-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/08ad393c/Club-Brugge-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/1e972a99/OH-Leuven-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/57b6cfb8/Sint-Truiden-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/868afa3f/Cercle-Brugge-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/33c6b26e/Sint-Truiden-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/09f00144/Genk-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/140e320a/Gent-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/08ad393c/Kortrijk-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/57b6cfb8/Antwerp-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/09f00144/08ad393c/Mechelen-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/140e320a/Cercle-Brugge-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/77193015/Club-Brugge-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c16e44ce/Union-SG-vs-Beerschot-Wilrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/80328a1e/Antwerp-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/27e981a3/Gent-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/1e972a99/Westerlo-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/33c6b26e/Dender-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/140e320a/Dender-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/80328a1e/Union-SG-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/1e972a99/Beerschot-Wilrijk-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/09f00144/OH-Leuven-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c2e6b53b/Club-Brugge-vs-Antwerp-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/80328a1e/Dender-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/33c6b26e/Westerlo-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/27e981a3/Club-Brugge-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/77193015/Union-SG-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/09f00144/Gent-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/140e320a/Beerschot-Wilrijk-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/1e972a99/Cercle-Brugge-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/08ad393c/Antwerp-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/08ad393c/Charleroi-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/51e5a603/Beerschot-Wilrijk-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/09f00144/Union-SG-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/57b6cfb8/Cercle-Brugge-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/1e972a99/Standard-Liege-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/868afa3f/Beerschot-Wilrijk-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/27e981a3/Antwerp-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/08ad393c/Union-SG-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/09f00144/Sint-Truiden-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/33c6b26e/Club-Brugge-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/77193015/Cercle-Brugge-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/1e972a99/Gent-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c2e6b53b/Cercle-Brugge-vs-Antwerp-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/08ad393c/Standard-Liege-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/77193015/Sint-Truiden-vs-Kortrijk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/27e981a3/Westerlo-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/868afa3f/Union-SG-vs-Dender-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/51e5a603/Club-Brugge-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/09f00144/Charleroi-vs-Mechelen-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/33c6b26e/Union-SG-vs-Standard-Liege-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/51e5a603/Antwerp-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e8d2adc4/Club-Brugge-vs-Cercle-Brugge-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/27e981a3/Kortrijk-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/08ad393c/Westerlo-vs-Anderlecht-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/80328a1e/Beerschot-Wilrijk-vs-Sint-Truiden-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/1e972a99/Dender-vs-Genk-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/83d0ffa2/Standard-Liege-Mechelen-August-9-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a40334d0/Dender-Kortrijk-August-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e5e32eb/Westerlo-Union-SG-August-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6299394b/Anderlecht-OH-Leuven-August-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2348d4c8/Genk-Club-Brugge-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab5a75e3/Antwerp-Sint-Truiden-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2535cdd/Charleroi-Gent-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0be717b1/Cercle-Brugge-Beerschot-Wilrijk-August-11-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/77193015/51e5a603/Kortrijk-vs-Gent-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/57b6cfb8/Beerschot-Wilrijk-vs-Westerlo-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/27e981a3/Sint-Truiden-vs-OH-Leuven-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/140e320a/Club-Brugge-vs-Charleroi-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/33c6b26e/Antwerp-vs-Standard-Liege-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/09f00144/Dender-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/57b6cfb8/Sint-Truiden-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/08ad393c/Club-Brugge-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/33c6b26e/Antwerp-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/1e972a99/Gent-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/e14f61a5/Cercle-Brugge-vs-Union-SG-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/57b6cfb8/Dender-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/33c6b26e/Sint-Truiden-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/27e981a3/Club-Brugge-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/09f00144/Union-SG-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/1e972a99/Antwerp-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/140e320a/Cercle-Brugge-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/08ad393c/Kortrijk-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/51e5a603/Beerschot-Wilrijk-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/09f00144/Sint-Truiden-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/77193015/Antwerp-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/27e981a3/Dender-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/140e320a/Westerlo-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/08ad393c/Cercle-Brugge-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/33c6b26e/Gent-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/1e972a99/Union-SG-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c16e44ce/Club-Brugge-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/868afa3f/Antwerp-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/80328a1e/Club-Brugge-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/33c6b26e/Cercle-Brugge-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/140e320a/Genk-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/09f00144/Beerschot-Wilrijk-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/27e981a3/Union-SG-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/08ad393c/Gent-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/57b6cfb8/Kortrijk-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/09f00144/Kortrijk-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/868afa3f/Club-Brugge-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/140e320a/Standard-Liege-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/1e972a99/Sint-Truiden-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c16e44ce/Cercle-Brugge-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/08ad393c/OH-Leuven-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c2e6b53b/Union-SG-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/51e5a603/Westerlo-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/1e972a99/Kortrijk-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/27e981a3/Standard-Liege-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/09f00144/Club-Brugge-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/51e5a603/Sint-Truiden-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/140e320a/Antwerp-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/08ad393c/Beerschot-Wilrijk-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/09f00144/Antwerp-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/33c6b26e/Beerschot-Wilrijk-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/77193015/Dender-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/1e972a99/Club-Brugge-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/57b6cfb8/Union-SG-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/08ad393c/Sint-Truiden-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/51e5a603/Cercle-Brugge-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/09f00144/Westerlo-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/140e320a/Sint-Truiden-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/08ad393c/Genk-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e14f61a5/Club-Brugge-vs-Union-SG-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/27e981a3/Cercle-Brugge-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/983b4411/Union-SG-Beerschot-Wilrijk-August-2-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a41d3109/Mechelen-Westerlo-August-3-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/00253441/OH-Leuven-Genk-August-3-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/bd16ab58/Sint-Truiden-Charleroi-August-3-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/591ddbff/Antwerp-Anderlecht-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/935ebc8c/Cercle-Brugge-Kortrijk-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f72dd118/Standard-Liege-Club-Brugge-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c657614e/Gent-Dender-August-4-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/57b6cfb8/Club-Brugge-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/140e320a/Kortrijk-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/09f00144/Standard-Liege-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/51e5a603/Union-SG-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/27e981a3/Beerschot-Wilrijk-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/08ad393c/Dender-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/80328a1e/Cercle-Brugge-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/33c6b26e/Kortrijk-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/c16e44ce/Antwerp-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/140e320a/Union-SG-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/51e5a603/Dender-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/09f00144/Cercle-Brugge-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/1e972a99/OH-Leuven-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/868afa3f/Cercle-Brugge-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1e972a99/09f00144/Genk-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/140e320a/Gent-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/57b6cfb8/Antwerp-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/09f00144/08ad393c/Mechelen-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/77193015/Club-Brugge-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/c16e44ce/Union-SG-vs-Beerschot-Wilrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/80328a1e/Antwerp-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/27e981a3/Gent-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/1e972a99/Westerlo-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/33c6b26e/Dender-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/140e320a/Dender-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/80328a1e/Union-SG-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/1e972a99/Beerschot-Wilrijk-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/27e981a3/09f00144/OH-Leuven-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/c2e6b53b/Club-Brugge-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/80328a1e/Dender-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/33c6b26e/Westerlo-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/77193015/Union-SG-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/51e5a603/09f00144/Gent-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/140e320a/Beerschot-Wilrijk-vs-Charleroi-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/1e972a99/Cercle-Brugge-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/08ad393c/Antwerp-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/08ad393c/Charleroi-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/57b6cfb8/Cercle-Brugge-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/1e972a99/Standard-Liege-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/868afa3f/Beerschot-Wilrijk-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/27e981a3/Antwerp-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/08ad393c/Union-SG-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/33c6b26e/Club-Brugge-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/77193015/Cercle-Brugge-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e8d2adc4/c2e6b53b/Cercle-Brugge-vs-Antwerp-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33c6b26e/08ad393c/Standard-Liege-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/77193015/Sint-Truiden-vs-Kortrijk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/27e981a3/Westerlo-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/868afa3f/Union-SG-vs-Dender-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/51e5a603/Club-Brugge-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/140e320a/09f00144/Charleroi-vs-Mechelen-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e14f61a5/33c6b26e/Union-SG-vs-Standard-Liege-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c2e6b53b/51e5a603/Antwerp-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/e8d2adc4/Club-Brugge-vs-Cercle-Brugge-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/27e981a3/Kortrijk-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/57b6cfb8/08ad393c/Westerlo-vs-Anderlecht-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/80328a1e/Beerschot-Wilrijk-vs-Sint-Truiden-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/868afa3f/1e972a99/Dender-vs-Genk-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/83d0ffa2/Standard-Liege-Mechelen-August-9-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a40334d0/Dender-Kortrijk-August-10-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3e5e32eb/Westerlo-Union-SG-August-10-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6299394b/Anderlecht-OH-Leuven-August-10-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2348d4c8/Genk-Club-Brugge-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ab5a75e3/Antwerp-Sint-Truiden-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/c2535cdd/Charleroi-Gent-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/0be717b1/Cercle-Brugge-Beerschot-Wilrijk-August-11-2024-Belgian-Pro-League</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/77193015/51e5a603/Kortrijk-vs-Gent-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c16e44ce/57b6cfb8/Beerschot-Wilrijk-vs-Westerlo-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/80328a1e/27e981a3/Sint-Truiden-vs-OH-Leuven-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f1e6c5f1/140e320a/Club-Brugge-vs-Charleroi-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/02d87139/Union-SG-Charleroi-August-16-2024-Belgian-Pro-League</t>
@@ -3313,29 +3364,29 @@
       <c r="K26" t="s">
         <v>281</v>
       </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
+      <c r="L26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.4</v>
       </c>
       <c r="N26" t="s">
         <v>278</v>
       </c>
-      <c r="O26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" t="e">
-        <v>#N/A</v>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7174.0</v>
       </c>
       <c r="R26" t="s">
         <v>297</v>
       </c>
       <c r="S26" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="T26" t="s">
         <v>274</v>
@@ -3378,29 +3429,29 @@
       <c r="K27" t="s">
         <v>282</v>
       </c>
-      <c r="L27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9</v>
       </c>
       <c r="N27" t="s">
         <v>289</v>
       </c>
-      <c r="O27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" t="e">
-        <v>#N/A</v>
+      <c r="O27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10284.0</v>
       </c>
       <c r="R27" t="s">
         <v>298</v>
       </c>
       <c r="S27" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="T27" t="s">
         <v>274</v>
@@ -3443,29 +3494,29 @@
       <c r="K28" t="s">
         <v>277</v>
       </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
+      <c r="L28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6</v>
       </c>
       <c r="N28" t="s">
         <v>284</v>
       </c>
-      <c r="O28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" t="e">
-        <v>#N/A</v>
+      <c r="O28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3705.0</v>
       </c>
       <c r="R28" t="s">
         <v>293</v>
       </c>
       <c r="S28" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="T28" t="s">
         <v>274</v>
@@ -3508,29 +3559,29 @@
       <c r="K29" t="s">
         <v>286</v>
       </c>
-      <c r="L29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="e">
-        <v>#N/A</v>
+      <c r="L29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.8</v>
       </c>
       <c r="N29" t="s">
         <v>283</v>
       </c>
-      <c r="O29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" t="e">
-        <v>#N/A</v>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4771.0</v>
       </c>
       <c r="R29" t="s">
         <v>302</v>
       </c>
       <c r="S29" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="T29" t="s">
         <v>274</v>
@@ -3573,29 +3624,29 @@
       <c r="K30" t="s">
         <v>276</v>
       </c>
-      <c r="L30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="e">
-        <v>#N/A</v>
+      <c r="L30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.9</v>
       </c>
       <c r="N30" t="s">
         <v>279</v>
       </c>
-      <c r="O30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" t="e">
-        <v>#N/A</v>
+      <c r="O30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>25978.0</v>
       </c>
       <c r="R30" t="s">
         <v>292</v>
       </c>
       <c r="S30" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="T30" t="s">
         <v>274</v>
@@ -3638,29 +3689,29 @@
       <c r="K31" t="s">
         <v>285</v>
       </c>
-      <c r="L31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M31" t="e">
-        <v>#N/A</v>
+      <c r="L31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.5</v>
       </c>
       <c r="N31" t="s">
         <v>290</v>
       </c>
-      <c r="O31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" t="e">
-        <v>#N/A</v>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>14011.0</v>
       </c>
       <c r="R31" t="s">
         <v>301</v>
       </c>
       <c r="S31" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="T31" t="s">
         <v>274</v>
@@ -3703,29 +3754,29 @@
       <c r="K32" t="s">
         <v>291</v>
       </c>
-      <c r="L32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M32" t="e">
-        <v>#N/A</v>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5</v>
       </c>
       <c r="N32" t="s">
         <v>280</v>
       </c>
-      <c r="O32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" t="e">
-        <v>#N/A</v>
+      <c r="O32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>17023.0</v>
       </c>
       <c r="R32" t="s">
         <v>306</v>
       </c>
       <c r="S32" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="T32" t="s">
         <v>274</v>
@@ -3768,29 +3819,29 @@
       <c r="K33" t="s">
         <v>288</v>
       </c>
-      <c r="L33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#N/A</v>
+      <c r="L33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.5</v>
       </c>
       <c r="N33" t="s">
         <v>287</v>
       </c>
-      <c r="O33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" t="e">
-        <v>#N/A</v>
+      <c r="O33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7186.0</v>
       </c>
       <c r="R33" t="s">
         <v>303</v>
       </c>
       <c r="S33" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="T33" t="s">
         <v>274</v>
@@ -3833,29 +3884,29 @@
       <c r="K34" t="s">
         <v>283</v>
       </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#N/A</v>
+      <c r="L34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.6</v>
       </c>
       <c r="N34" t="s">
         <v>277</v>
       </c>
-      <c r="O34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" t="e">
-        <v>#N/A</v>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4845.0</v>
       </c>
       <c r="R34" t="s">
         <v>299</v>
       </c>
       <c r="S34" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="T34" t="s">
         <v>274</v>
@@ -3898,29 +3949,29 @@
       <c r="K35" t="s">
         <v>290</v>
       </c>
-      <c r="L35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M35" t="e">
-        <v>#N/A</v>
+      <c r="L35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.8</v>
       </c>
       <c r="N35" t="s">
         <v>286</v>
       </c>
-      <c r="O35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" t="e">
-        <v>#N/A</v>
+      <c r="O35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>16358.0</v>
       </c>
       <c r="R35" t="s">
         <v>305</v>
       </c>
       <c r="S35" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="T35" t="s">
         <v>274</v>
@@ -3963,29 +4014,29 @@
       <c r="K36" t="s">
         <v>289</v>
       </c>
-      <c r="L36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M36" t="e">
-        <v>#N/A</v>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.3</v>
       </c>
       <c r="N36" t="s">
         <v>276</v>
       </c>
-      <c r="O36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" t="e">
-        <v>#N/A</v>
+      <c r="O36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9348.0</v>
       </c>
       <c r="R36" t="s">
         <v>304</v>
       </c>
       <c r="S36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="T36" t="s">
         <v>274</v>
@@ -4028,29 +4079,29 @@
       <c r="K37" t="s">
         <v>284</v>
       </c>
-      <c r="L37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M37" t="e">
-        <v>#N/A</v>
+      <c r="L37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.0</v>
       </c>
       <c r="N37" t="s">
         <v>288</v>
       </c>
-      <c r="O37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" t="e">
-        <v>#N/A</v>
+      <c r="O37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>13435.0</v>
       </c>
       <c r="R37" t="s">
         <v>300</v>
       </c>
       <c r="S37" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="T37" t="s">
         <v>274</v>
@@ -4093,29 +4144,29 @@
       <c r="K38" t="s">
         <v>280</v>
       </c>
-      <c r="L38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M38" t="e">
-        <v>#N/A</v>
+      <c r="L38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.6</v>
       </c>
       <c r="N38" t="s">
         <v>285</v>
       </c>
-      <c r="O38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <v>#N/A</v>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>20407.0</v>
       </c>
       <c r="R38" t="s">
         <v>296</v>
       </c>
       <c r="S38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="T38" t="s">
         <v>274</v>
@@ -4158,29 +4209,29 @@
       <c r="K39" t="s">
         <v>287</v>
       </c>
-      <c r="L39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M39" t="e">
-        <v>#N/A</v>
+      <c r="L39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.1</v>
       </c>
       <c r="N39" t="s">
         <v>282</v>
       </c>
-      <c r="O39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" t="e">
-        <v>#N/A</v>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6419.0</v>
       </c>
       <c r="R39" t="s">
         <v>292</v>
       </c>
       <c r="S39" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="T39" t="s">
         <v>274</v>
@@ -4223,29 +4274,29 @@
       <c r="K40" t="s">
         <v>279</v>
       </c>
-      <c r="L40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M40" t="e">
-        <v>#N/A</v>
+      <c r="L40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.4</v>
       </c>
       <c r="N40" t="s">
         <v>281</v>
       </c>
-      <c r="O40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" t="e">
-        <v>#N/A</v>
+      <c r="O40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>16620.0</v>
       </c>
       <c r="R40" t="s">
         <v>295</v>
       </c>
       <c r="S40" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="T40" t="s">
         <v>274</v>
@@ -4288,29 +4339,29 @@
       <c r="K41" t="s">
         <v>278</v>
       </c>
-      <c r="L41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M41" t="e">
-        <v>#N/A</v>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7</v>
       </c>
       <c r="N41" t="s">
         <v>291</v>
       </c>
-      <c r="O41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" t="e">
-        <v>#N/A</v>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4336.0</v>
       </c>
       <c r="R41" t="s">
         <v>294</v>
       </c>
       <c r="S41" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="T41" t="s">
         <v>274</v>
@@ -4353,20 +4404,20 @@
       <c r="K42" t="s">
         <v>286</v>
       </c>
-      <c r="L42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M42" t="e">
-        <v>#N/A</v>
+      <c r="L42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.2</v>
       </c>
       <c r="N42" t="s">
         <v>284</v>
       </c>
-      <c r="O42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P42" t="e">
-        <v>#N/A</v>
+      <c r="O42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q42" t="e">
         <v>#N/A</v>
@@ -4375,7 +4426,7 @@
         <v>302</v>
       </c>
       <c r="S42" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="T42" t="s">
         <v>274</v>
@@ -6266,7 +6317,7 @@
         <v>274</v>
       </c>
       <c r="U71" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72">
@@ -6331,7 +6382,7 @@
         <v>274</v>
       </c>
       <c r="U72" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73">
@@ -6396,7 +6447,7 @@
         <v>274</v>
       </c>
       <c r="U73" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74">
@@ -6461,7 +6512,7 @@
         <v>274</v>
       </c>
       <c r="U74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75">
@@ -6526,7 +6577,7 @@
         <v>274</v>
       </c>
       <c r="U75" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76">
@@ -6591,7 +6642,7 @@
         <v>274</v>
       </c>
       <c r="U76" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77">
@@ -6656,7 +6707,7 @@
         <v>274</v>
       </c>
       <c r="U77" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78">
@@ -6721,7 +6772,7 @@
         <v>274</v>
       </c>
       <c r="U78" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79">
@@ -6786,7 +6837,7 @@
         <v>274</v>
       </c>
       <c r="U79" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80">
@@ -6851,7 +6902,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81">
@@ -6916,7 +6967,7 @@
         <v>274</v>
       </c>
       <c r="U81" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82">
@@ -6981,7 +7032,7 @@
         <v>274</v>
       </c>
       <c r="U82" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83">
@@ -7046,7 +7097,7 @@
         <v>274</v>
       </c>
       <c r="U83" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84">
@@ -7176,7 +7227,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86">
@@ -7241,7 +7292,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87">
@@ -7371,7 +7422,7 @@
         <v>274</v>
       </c>
       <c r="U88" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89">
@@ -7436,7 +7487,7 @@
         <v>274</v>
       </c>
       <c r="U89" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90">
@@ -7501,7 +7552,7 @@
         <v>274</v>
       </c>
       <c r="U90" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91">
@@ -7566,7 +7617,7 @@
         <v>274</v>
       </c>
       <c r="U91" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92">
@@ -7631,7 +7682,7 @@
         <v>274</v>
       </c>
       <c r="U92" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93">
@@ -7696,7 +7747,7 @@
         <v>274</v>
       </c>
       <c r="U93" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94">
@@ -7761,7 +7812,7 @@
         <v>274</v>
       </c>
       <c r="U94" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95">
@@ -7826,7 +7877,7 @@
         <v>274</v>
       </c>
       <c r="U95" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96">
@@ -7891,7 +7942,7 @@
         <v>274</v>
       </c>
       <c r="U96" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97">
@@ -7950,13 +8001,13 @@
         <v>306</v>
       </c>
       <c r="S97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T97" t="s">
         <v>274</v>
       </c>
       <c r="U97" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98">
@@ -8021,7 +8072,7 @@
         <v>274</v>
       </c>
       <c r="U98" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99">
@@ -8086,7 +8137,7 @@
         <v>274</v>
       </c>
       <c r="U99" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100">
@@ -8151,7 +8202,7 @@
         <v>274</v>
       </c>
       <c r="U100" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101">
@@ -8216,7 +8267,7 @@
         <v>274</v>
       </c>
       <c r="U101" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102">
@@ -8281,7 +8332,7 @@
         <v>274</v>
       </c>
       <c r="U102" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103">
@@ -8346,7 +8397,7 @@
         <v>274</v>
       </c>
       <c r="U103" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="104">
@@ -8411,7 +8462,7 @@
         <v>274</v>
       </c>
       <c r="U104" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105">
@@ -8476,7 +8527,7 @@
         <v>274</v>
       </c>
       <c r="U105" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="106">
@@ -8541,7 +8592,7 @@
         <v>274</v>
       </c>
       <c r="U106" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107">
@@ -8606,7 +8657,7 @@
         <v>274</v>
       </c>
       <c r="U107" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108">
@@ -8671,7 +8722,7 @@
         <v>274</v>
       </c>
       <c r="U108" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109">
@@ -8736,7 +8787,7 @@
         <v>274</v>
       </c>
       <c r="U109" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110">
@@ -8801,7 +8852,7 @@
         <v>274</v>
       </c>
       <c r="U110" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111">
@@ -8866,7 +8917,7 @@
         <v>274</v>
       </c>
       <c r="U111" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
     </row>
     <row r="112">
@@ -8931,7 +8982,7 @@
         <v>274</v>
       </c>
       <c r="U112" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113">
@@ -8996,7 +9047,7 @@
         <v>274</v>
       </c>
       <c r="U113" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
     </row>
     <row r="114">
@@ -9061,7 +9112,7 @@
         <v>274</v>
       </c>
       <c r="U114" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115">
@@ -9126,7 +9177,7 @@
         <v>274</v>
       </c>
       <c r="U115" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116">
@@ -9256,7 +9307,7 @@
         <v>274</v>
       </c>
       <c r="U117" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118">
@@ -9321,7 +9372,7 @@
         <v>274</v>
       </c>
       <c r="U118" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119">
@@ -9386,7 +9437,7 @@
         <v>274</v>
       </c>
       <c r="U119" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120">
@@ -9451,7 +9502,7 @@
         <v>274</v>
       </c>
       <c r="U120" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121">
@@ -9581,7 +9632,7 @@
         <v>274</v>
       </c>
       <c r="U122" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123">
@@ -9646,7 +9697,7 @@
         <v>274</v>
       </c>
       <c r="U123" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124">
@@ -9711,7 +9762,7 @@
         <v>274</v>
       </c>
       <c r="U124" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125">
@@ -9776,7 +9827,7 @@
         <v>274</v>
       </c>
       <c r="U125" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126">
@@ -9841,7 +9892,7 @@
         <v>274</v>
       </c>
       <c r="U126" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127">
@@ -9906,7 +9957,7 @@
         <v>274</v>
       </c>
       <c r="U127" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
@@ -9971,7 +10022,7 @@
         <v>274</v>
       </c>
       <c r="U128" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129">
@@ -10036,7 +10087,7 @@
         <v>274</v>
       </c>
       <c r="U129" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130">
@@ -10101,7 +10152,7 @@
         <v>274</v>
       </c>
       <c r="U130" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131">
@@ -10231,7 +10282,7 @@
         <v>274</v>
       </c>
       <c r="U132" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133">
@@ -10361,7 +10412,7 @@
         <v>274</v>
       </c>
       <c r="U134" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135">
@@ -10491,7 +10542,7 @@
         <v>274</v>
       </c>
       <c r="U136" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137">
@@ -10556,7 +10607,7 @@
         <v>274</v>
       </c>
       <c r="U137" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138">
@@ -10621,7 +10672,7 @@
         <v>274</v>
       </c>
       <c r="U138" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139">
@@ -10686,7 +10737,7 @@
         <v>274</v>
       </c>
       <c r="U139" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140">
@@ -10751,7 +10802,7 @@
         <v>274</v>
       </c>
       <c r="U140" t="s">
-        <v>356</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141">
@@ -10816,7 +10867,7 @@
         <v>274</v>
       </c>
       <c r="U141" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142">
@@ -10881,7 +10932,7 @@
         <v>274</v>
       </c>
       <c r="U142" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143">
@@ -10946,7 +10997,7 @@
         <v>274</v>
       </c>
       <c r="U143" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144">
@@ -11011,7 +11062,7 @@
         <v>274</v>
       </c>
       <c r="U144" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145">
@@ -11076,7 +11127,7 @@
         <v>274</v>
       </c>
       <c r="U145" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146">
@@ -11141,7 +11192,7 @@
         <v>274</v>
       </c>
       <c r="U146" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147">
@@ -11206,7 +11257,7 @@
         <v>274</v>
       </c>
       <c r="U147" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148">
@@ -11271,7 +11322,7 @@
         <v>274</v>
       </c>
       <c r="U148" t="s">
-        <v>357</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149">
@@ -11401,7 +11452,7 @@
         <v>274</v>
       </c>
       <c r="U150" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151">
@@ -11596,7 +11647,7 @@
         <v>274</v>
       </c>
       <c r="U153" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154">
@@ -11661,7 +11712,7 @@
         <v>274</v>
       </c>
       <c r="U154" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155">
@@ -11791,7 +11842,7 @@
         <v>274</v>
       </c>
       <c r="U156" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157">
@@ -11856,7 +11907,7 @@
         <v>274</v>
       </c>
       <c r="U157" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158">
@@ -11921,7 +11972,7 @@
         <v>274</v>
       </c>
       <c r="U158" t="s">
-        <v>362</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159">
@@ -11986,7 +12037,7 @@
         <v>274</v>
       </c>
       <c r="U159" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160">
@@ -12051,7 +12102,7 @@
         <v>274</v>
       </c>
       <c r="U160" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161">
@@ -12116,7 +12167,7 @@
         <v>274</v>
       </c>
       <c r="U161" t="s">
-        <v>352</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162">
@@ -12181,7 +12232,7 @@
         <v>274</v>
       </c>
       <c r="U162" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163">
@@ -12311,7 +12362,7 @@
         <v>274</v>
       </c>
       <c r="U164" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165">
@@ -12441,7 +12492,7 @@
         <v>274</v>
       </c>
       <c r="U166" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167">
@@ -12506,7 +12557,7 @@
         <v>274</v>
       </c>
       <c r="U167" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168">
@@ -12571,7 +12622,7 @@
         <v>274</v>
       </c>
       <c r="U168" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169">
@@ -12636,7 +12687,7 @@
         <v>274</v>
       </c>
       <c r="U169" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170">
@@ -12701,7 +12752,7 @@
         <v>274</v>
       </c>
       <c r="U170" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171">
@@ -12766,7 +12817,7 @@
         <v>274</v>
       </c>
       <c r="U171" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="172">
@@ -12831,7 +12882,7 @@
         <v>274</v>
       </c>
       <c r="U172" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173">
@@ -12896,7 +12947,7 @@
         <v>274</v>
       </c>
       <c r="U173" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174">
@@ -12961,7 +13012,7 @@
         <v>274</v>
       </c>
       <c r="U174" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="175">
@@ -13026,7 +13077,7 @@
         <v>274</v>
       </c>
       <c r="U175" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="176">
@@ -13091,7 +13142,7 @@
         <v>274</v>
       </c>
       <c r="U176" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177">
@@ -13156,7 +13207,7 @@
         <v>274</v>
       </c>
       <c r="U177" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178">
@@ -13221,7 +13272,7 @@
         <v>274</v>
       </c>
       <c r="U178" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179">
@@ -13286,7 +13337,7 @@
         <v>274</v>
       </c>
       <c r="U179" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180">
@@ -13351,7 +13402,7 @@
         <v>274</v>
       </c>
       <c r="U180" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181">
@@ -13416,7 +13467,7 @@
         <v>274</v>
       </c>
       <c r="U181" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182">
@@ -13481,7 +13532,7 @@
         <v>274</v>
       </c>
       <c r="U182" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183">
@@ -13546,7 +13597,7 @@
         <v>274</v>
       </c>
       <c r="U183" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184">
@@ -13611,7 +13662,7 @@
         <v>274</v>
       </c>
       <c r="U184" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185">
@@ -13676,7 +13727,7 @@
         <v>274</v>
       </c>
       <c r="U185" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186">
@@ -13741,7 +13792,7 @@
         <v>274</v>
       </c>
       <c r="U186" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187">
@@ -13806,7 +13857,7 @@
         <v>274</v>
       </c>
       <c r="U187" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188">
@@ -13871,7 +13922,7 @@
         <v>274</v>
       </c>
       <c r="U188" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189">
@@ -14001,7 +14052,7 @@
         <v>274</v>
       </c>
       <c r="U190" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191">
@@ -14066,7 +14117,7 @@
         <v>274</v>
       </c>
       <c r="U191" t="s">
-        <v>351</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192">
@@ -14196,7 +14247,7 @@
         <v>274</v>
       </c>
       <c r="U193" t="s">
-        <v>348</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194">
@@ -14261,7 +14312,7 @@
         <v>274</v>
       </c>
       <c r="U194" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195">
@@ -14326,7 +14377,7 @@
         <v>274</v>
       </c>
       <c r="U195" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196">
@@ -14391,7 +14442,7 @@
         <v>274</v>
       </c>
       <c r="U196" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197">
@@ -14456,7 +14507,7 @@
         <v>274</v>
       </c>
       <c r="U197" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198">
@@ -14521,7 +14572,7 @@
         <v>274</v>
       </c>
       <c r="U198" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199">
@@ -14586,7 +14637,7 @@
         <v>274</v>
       </c>
       <c r="U199" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200">
@@ -14651,7 +14702,7 @@
         <v>274</v>
       </c>
       <c r="U200" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="201">
@@ -14716,7 +14767,7 @@
         <v>274</v>
       </c>
       <c r="U201" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202">
@@ -14781,7 +14832,7 @@
         <v>274</v>
       </c>
       <c r="U202" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="203">
@@ -14846,7 +14897,7 @@
         <v>274</v>
       </c>
       <c r="U203" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204">
@@ -14911,7 +14962,7 @@
         <v>274</v>
       </c>
       <c r="U204" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205">
@@ -14976,7 +15027,7 @@
         <v>274</v>
       </c>
       <c r="U205" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="206">
@@ -15041,7 +15092,7 @@
         <v>274</v>
       </c>
       <c r="U206" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="207">
@@ -15106,7 +15157,7 @@
         <v>274</v>
       </c>
       <c r="U207" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="208">
@@ -15171,7 +15222,7 @@
         <v>274</v>
       </c>
       <c r="U208" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="209">
@@ -15230,13 +15281,13 @@
         <v>292</v>
       </c>
       <c r="S209" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T209" t="s">
         <v>274</v>
       </c>
       <c r="U209" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="210">
@@ -15301,7 +15352,7 @@
         <v>274</v>
       </c>
       <c r="U210" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211">
@@ -15360,13 +15411,13 @@
         <v>300</v>
       </c>
       <c r="S211" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T211" t="s">
         <v>274</v>
       </c>
       <c r="U211" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212">
@@ -15431,7 +15482,7 @@
         <v>274</v>
       </c>
       <c r="U212" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213">
@@ -15496,7 +15547,7 @@
         <v>274</v>
       </c>
       <c r="U213" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214">
@@ -15561,7 +15612,7 @@
         <v>274</v>
       </c>
       <c r="U214" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215">
@@ -15626,7 +15677,7 @@
         <v>274</v>
       </c>
       <c r="U215" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="216">
@@ -15691,7 +15742,7 @@
         <v>274</v>
       </c>
       <c r="U216" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="217">
@@ -15750,13 +15801,13 @@
         <v>297</v>
       </c>
       <c r="S217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T217" t="s">
         <v>274</v>
       </c>
       <c r="U217" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="218">
@@ -15821,7 +15872,7 @@
         <v>274</v>
       </c>
       <c r="U218" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219">
@@ -15886,7 +15937,7 @@
         <v>274</v>
       </c>
       <c r="U219" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220">
@@ -15951,7 +16002,7 @@
         <v>274</v>
       </c>
       <c r="U220" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="221">
@@ -16016,7 +16067,7 @@
         <v>274</v>
       </c>
       <c r="U221" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="222">
@@ -16081,7 +16132,7 @@
         <v>274</v>
       </c>
       <c r="U222" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="223">
@@ -16146,7 +16197,7 @@
         <v>274</v>
       </c>
       <c r="U223" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224">
@@ -16211,7 +16262,7 @@
         <v>274</v>
       </c>
       <c r="U224" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="225">
@@ -16276,7 +16327,7 @@
         <v>274</v>
       </c>
       <c r="U225" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="226">
@@ -16335,13 +16386,13 @@
         <v>305</v>
       </c>
       <c r="S226" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T226" t="s">
         <v>274</v>
       </c>
       <c r="U226" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="227">
@@ -16400,13 +16451,13 @@
         <v>294</v>
       </c>
       <c r="S227" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T227" t="s">
         <v>274</v>
       </c>
       <c r="U227" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228">
@@ -16471,7 +16522,7 @@
         <v>274</v>
       </c>
       <c r="U228" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="229">
@@ -16536,7 +16587,7 @@
         <v>274</v>
       </c>
       <c r="U229" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="230">
@@ -16601,7 +16652,7 @@
         <v>274</v>
       </c>
       <c r="U230" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231">
@@ -16666,7 +16717,7 @@
         <v>274</v>
       </c>
       <c r="U231" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="232">
@@ -16731,7 +16782,7 @@
         <v>274</v>
       </c>
       <c r="U232" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
     </row>
     <row r="233">
@@ -16796,7 +16847,7 @@
         <v>274</v>
       </c>
       <c r="U233" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
     </row>
     <row r="234">
@@ -16861,7 +16912,7 @@
         <v>274</v>
       </c>
       <c r="U234" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
     </row>
     <row r="235">
@@ -16926,7 +16977,7 @@
         <v>274</v>
       </c>
       <c r="U235" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="236">
@@ -16985,13 +17036,13 @@
         <v>305</v>
       </c>
       <c r="S236" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T236" t="s">
         <v>274</v>
       </c>
       <c r="U236" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="237">
@@ -17056,7 +17107,7 @@
         <v>274</v>
       </c>
       <c r="U237" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="238">
@@ -17121,7 +17172,7 @@
         <v>321</v>
       </c>
       <c r="U238" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="239">
@@ -17186,7 +17237,7 @@
         <v>274</v>
       </c>
       <c r="U239" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="240">
@@ -17251,7 +17302,7 @@
         <v>274</v>
       </c>
       <c r="U240" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="241">
@@ -17316,7 +17367,7 @@
         <v>274</v>
       </c>
       <c r="U241" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
